--- a/Document/Frame SuaChuaBG.xlsx
+++ b/Document/Frame SuaChuaBG.xlsx
@@ -3,16 +3,21 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FD603BF-9295-4856-87CA-8644E0E31870}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39EF48B3-D0FB-47B5-86E9-FB298B7B4B11}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="749" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WebUI_Login" sheetId="1" r:id="rId1"/>
-    <sheet name="WebUI_BaoSua" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet_DSUserDV" sheetId="6" r:id="rId3"/>
-    <sheet name="Sheet_DSUserSua" sheetId="7" r:id="rId4"/>
-    <sheet name="Sheet_DataSC (chưa xong)" sheetId="8" r:id="rId5"/>
+    <sheet name="WebUI_BaoSua (old)" sheetId="3" state="hidden" r:id="rId2"/>
+    <sheet name="WebUI_BaoSua" sheetId="12" r:id="rId3"/>
+    <sheet name="WebUI_SuaChua (Old)" sheetId="10" state="hidden" r:id="rId4"/>
+    <sheet name="WebUI_SuaChua (layout)" sheetId="13" r:id="rId5"/>
+    <sheet name="WebUI_SuaChua (CL)" sheetId="14" r:id="rId6"/>
+    <sheet name="WebUI_SuaChua (E-C)" sheetId="15" r:id="rId7"/>
+    <sheet name="Sheet_DataSC" sheetId="11" r:id="rId8"/>
+    <sheet name="Sheet_DSUserDV" sheetId="6" r:id="rId9"/>
+    <sheet name="Sheet_DSUserSua" sheetId="7" r:id="rId10"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -24,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="248">
   <si>
     <t>STT</t>
   </si>
@@ -306,18 +311,603 @@
   <si>
     <t>- Hiển thị list danh sách để người dùng chọn (lấy trong sheet DSThietBi, lọc theo "Đơn vị yêu cầu" và "Nhóm thiết bị")</t>
   </si>
+  <si>
+    <t>🏥</t>
+  </si>
+  <si>
+    <t>🚨</t>
+  </si>
+  <si>
+    <t>Nội dung</t>
+  </si>
+  <si>
+    <t>Hành động</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Giữ nguyên</t>
+  </si>
+  <si>
+    <t>BM.VTTB.09.04</t>
+  </si>
+  <si>
+    <t>BM.VTTB.09.03</t>
+  </si>
+  <si>
+    <t>BM.VTTB.09.02</t>
+  </si>
+  <si>
+    <t>BM.VTTB.09.01 
+PDF</t>
+  </si>
+  <si>
+    <t>BM.VTTB.09.01 
+WORD</t>
+  </si>
+  <si>
+    <t>Tình trạng thiết bị bàn giao</t>
+  </si>
+  <si>
+    <t>Ngày bàn giao</t>
+  </si>
+  <si>
+    <t>Nội dung đề nghi</t>
+  </si>
+  <si>
+    <t>Ngày đề nghi</t>
+  </si>
+  <si>
+    <t>Đề xuất phương án</t>
+  </si>
+  <si>
+    <t>Kết luận khảo sát</t>
+  </si>
+  <si>
+    <t>Tình trang thiết bị khảo sát</t>
+  </si>
+  <si>
+    <t>Ngày khảo sát</t>
+  </si>
+  <si>
+    <t>Ngày đơn vị báo</t>
+  </si>
+  <si>
+    <t>Tình trạng thiết bị đơn vị báo</t>
+  </si>
+  <si>
+    <t>Xóa</t>
+  </si>
+  <si>
+    <t>Năm sử dụng</t>
+  </si>
+  <si>
+    <t>Nước sản xuất</t>
+  </si>
+  <si>
+    <t>IDThietBi</t>
+  </si>
+  <si>
+    <t>Thay đổi</t>
+  </si>
+  <si>
+    <t>IDUserSua</t>
+  </si>
+  <si>
+    <t>SĐT người sửa</t>
+  </si>
+  <si>
+    <t>IDUserDV</t>
+  </si>
+  <si>
+    <t>Mức độ</t>
+  </si>
+  <si>
+    <t>Trạng thái</t>
+  </si>
+  <si>
+    <t>IDDataSC</t>
+  </si>
+  <si>
+    <t>Năm sử dụng (Xóa)</t>
+  </si>
+  <si>
+    <t>Năm sản xuất (Xóa)</t>
+  </si>
+  <si>
+    <t>Nước sản xuất (Xóa)</t>
+  </si>
+  <si>
+    <t>Hãng sản xuất (Xóa)</t>
+  </si>
+  <si>
+    <t>Serial (Xóa)</t>
+  </si>
+  <si>
+    <t>Model (Xóa)</t>
+  </si>
+  <si>
+    <t>Tên thiết bị (Xóa)</t>
+  </si>
+  <si>
+    <t>Nhóm thiết bị (Xóa)</t>
+  </si>
+  <si>
+    <t>Mã thiết bị (Xóa)</t>
+  </si>
+  <si>
+    <t>Nội dung cột mới</t>
+  </si>
+  <si>
+    <t>Nội dung cột cũ</t>
+  </si>
+  <si>
+    <t>Sheet: DataSC</t>
+  </si>
+  <si>
+    <t>Ghi chú/DataSC</t>
+  </si>
+  <si>
+    <t>Người dùng tự nhập</t>
+  </si>
+  <si>
+    <t>Có sửa</t>
+  </si>
+  <si>
+    <t>Textbox</t>
+  </si>
+  <si>
+    <t>- Kiểu: Textbox
+- Sửa: Có sửa
+- Lấy dữ liệu: Người dùng tự nhập
+- Ghi dữ liệu: Ghi chú/DataSC</t>
+  </si>
+  <si>
+    <t>Ngày đơn vị báo/DataSC</t>
+  </si>
+  <si>
+    <t>Lấy ngày hiện tại</t>
+  </si>
+  <si>
+    <t>Không sửa</t>
+  </si>
+  <si>
+    <t>- Kiểu: Textbox
+- Sửa: Không sửa
+- Lấy dữ liệu: Lấy ngày hiện tại
+- Ghi dữ liệu: Ngày đơn vị báo/DataSC</t>
+  </si>
+  <si>
+    <t>Ngày (thiếu)</t>
+  </si>
+  <si>
+    <t>Mức độ/DataSC</t>
+  </si>
+  <si>
+    <t>List 3 mức: Thường, Gấp, Rất gấp</t>
+  </si>
+  <si>
+    <t>Cho phép chọn</t>
+  </si>
+  <si>
+    <t>ComboBox</t>
+  </si>
+  <si>
+    <t>- Kiểu: ComboBox
+- Sửa: Cho phép chọn
+- Lấy dữ liệu: List 3 mức: Thường, Gấp, Rất gấp
+- Ghi dữ liệu: Mức độ/DataSC</t>
+  </si>
+  <si>
+    <t>Tình trạng thiết bị đơn vị báo/DataSC</t>
+  </si>
+  <si>
+    <t>- Kiểu: Textbox
+- Sửa: Có sửa
+- Lấy dữ liệu: Người dùng tự nhập
+- Ghi dữ liệu: Tình trạng thiết bị đơn vị báo/DataSC</t>
+  </si>
+  <si>
+    <t>Không</t>
+  </si>
+  <si>
+    <t>Sheet DSThietBi dựa trên Mã thiết bị</t>
+  </si>
+  <si>
+    <t>- Kiểu: Textbox
+- Sửa: Không sửa
+- Lấy dữ liệu: Sheet DSThietBi dựa trên Mã thiết bị
+- Ghi dữ liệu: Không</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vị trí đặt </t>
+  </si>
+  <si>
+    <t>Nước sản xuất (thiếu)</t>
+  </si>
+  <si>
+    <t>Ghi IDThietBi/DataSC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
++ Danh sách đề xuất (Suggested values) cột Mã thiết bị/DSThietBi được lọc theo đơn vị yêu cầu và Nhóm thiết bị
++ Tên ghi sẵn (Initial value): Không</t>
+  </si>
+  <si>
+    <t>Ghi IDThietBi/DataSC (Dựa trên lựa chọn của Nhóm dữ liệu và mã thiết bị)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
++ Danh sách đề xuất (Suggested values) cột Nhóm thiết bị/DSThietBi được lọc theo đơn vị yêu cầu
++ Tên ghi sẵn (Initial value): Không</t>
+  </si>
+  <si>
+    <t>- Kiểu: ComboBox
+- Sửa: Cho phép chọn
+- Lấy dữ liệu: 
++ Danh sách đề xuất (Suggested values) cột Nhóm thiết bị/DSThietBi được lọc theo đơn vị yêu cầu
++ Tên ghi sẵn (Initial value): Không
+- Ghi dữ liệu: Ghi IDThietBi/DataSC (Dựa trên lựa chọn của Nhóm dữ liệu và mã thiết bị)</t>
+  </si>
+  <si>
+    <t>Theo tên Người sửa chữa (Họ và tên -&gt; Số điện thoại/DSUserSua)</t>
+  </si>
+  <si>
+    <t>- Kiểu: Textbox
+- Sửa: Không sửa
+- Lấy dữ liệu: Theo tên Người sửa chữa (Họ và tên -&gt; Số điện thoại/DSUserSua)
+- Ghi dữ liệu: Không</t>
+  </si>
+  <si>
+    <t>Ghi vào 2 nơi:
++ IDUserSua/DataSC
++ Người sửa chữa/DSUserDV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
++ Danh sách đề xuất (Suggested values) toàn bộ cột Họ và tên/DSUserSua
++ Tên ghi sẵn (Initial value) cột Người sửa chữa/DSUserDV (tìm theo Username -&gt; Người sửa chữa/DSUserDV)</t>
+  </si>
+  <si>
+    <t>Mục đích ghi cột Người sửa chữa/DSUserDV có tên ghi sẵn cho lần nhập tiếp theo</t>
+  </si>
+  <si>
+    <t>- Kiểu: ComboBox
+- Sửa: Cho phép chọn
+- Lấy dữ liệu: 
++ Danh sách đề xuất (Suggested values) toàn bộ cột Họ và tên/DSUserSua
++ Tên ghi sẵn (Initial value) cột Người sửa chữa/DSUserDV (tìm theo Username -&gt; Người sửa chữa/DSUserDV)
+- Ghi dữ liệu: Ghi vào 2 nơi:
++ IDUserSua/DataSC
++ Người sửa chữa/DSUserDV</t>
+  </si>
+  <si>
+    <t>Nếu có thay đổi thì ghi vào  Số điện thoại/DSUserDV</t>
+  </si>
+  <si>
+    <t>Theo tên đăng nhập (Username -&gt; Số điện thoại/DSUserDV)</t>
+  </si>
+  <si>
+    <t>Tương tự như Người yêu cầu</t>
+  </si>
+  <si>
+    <t>- Kiểu: Textbox
+- Sửa: Có sửa
+- Lấy dữ liệu: Theo tên đăng nhập (Username -&gt; Số điện thoại/DSUserDV)
+- Ghi dữ liệu: Nếu có thay đổi thì ghi vào  Số điện thoại/DSUserDV</t>
+  </si>
+  <si>
+    <t>Nếu có thay đổi thì ghi vào  Họ và tên/DSUserDV</t>
+  </si>
+  <si>
+    <t>Theo tên đăng nhập (Username -&gt; Họ và tên/DSUserDV)</t>
+  </si>
+  <si>
+    <t>Nếu người dùng sửa thông tin, thì ghi vào cột Họ và tên/DSUserDV (Mục đích là có dữ liệu để gợi ý người dùng)</t>
+  </si>
+  <si>
+    <t>- Kiểu: Textbox
+- Sửa: Có sửa
+- Lấy dữ liệu: Theo tên đăng nhập (Username -&gt; Họ và tên/DSUserDV)
+- Ghi dữ liệu: Nếu có thay đổi thì ghi vào  Họ và tên/DSUserDV</t>
+  </si>
+  <si>
+    <t>IDUserDV/DataSC (Username -&gt; IDUser/DSUserDV)</t>
+  </si>
+  <si>
+    <t>Theo tên đăng nhập (Username -&gt; Đơn vị/DSUserDV)</t>
+  </si>
+  <si>
+    <t>Ghi vào cột IDUser của sheet DSUserDV</t>
+  </si>
+  <si>
+    <t>- Kiểu: Textbox
+- Sửa: Không sửa
+- Lấy dữ liệu: Theo tên đăng nhập (Username -&gt; Đơn vị/DSUserDV)
+- Ghi dữ liệu: IDUserDV/DataSC (Username -&gt; IDUser/DSUserDV)</t>
+  </si>
+  <si>
+    <t>Thực hiện</t>
+  </si>
+  <si>
+    <t>UIWeb (Báo sửa)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chức vụ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đại đơn vị </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đại diện bệnh viện </t>
+  </si>
+  <si>
+    <t>Tình trạng thiết bị sảu khi sửa chữa</t>
+  </si>
+  <si>
+    <t>BÀN GIAO, NGHIỆM THU ĐƯA VÀO SỬ DỤNG</t>
+  </si>
+  <si>
+    <t>Ngày đề nghị</t>
+  </si>
+  <si>
+    <t>Nội dung đề nghị</t>
+  </si>
+  <si>
+    <t>ĐỀ NGHỊ PHƯƠNG ÁN SỬA</t>
+  </si>
+  <si>
+    <t>Quyết định tổ khảo sát</t>
+  </si>
+  <si>
+    <t>Chức vụ 2</t>
+  </si>
+  <si>
+    <t>Đại đơn vị 2</t>
+  </si>
+  <si>
+    <t>Chức vụ 1</t>
+  </si>
+  <si>
+    <t>Đại đơn vị 1</t>
+  </si>
+  <si>
+    <t>Chức vụ 5</t>
+  </si>
+  <si>
+    <t>Đại diện bệnh viện 5</t>
+  </si>
+  <si>
+    <t>Chức vụ 4</t>
+  </si>
+  <si>
+    <t>Đại diện bệnh viện 4</t>
+  </si>
+  <si>
+    <t>Chức vụ 3</t>
+  </si>
+  <si>
+    <t>Đại diện bệnh viện 3</t>
+  </si>
+  <si>
+    <t>Đại diện bệnh viện 2</t>
+  </si>
+  <si>
+    <t>Đại diện bệnh viện 1</t>
+  </si>
+  <si>
+    <t>Đề xuất phương án sửa</t>
+  </si>
+  <si>
+    <t>Kết luận</t>
+  </si>
+  <si>
+    <t>THÔNG TIN TÌNH TRẠNG THIẾT BỊ HỎNG</t>
+  </si>
+  <si>
+    <t>THÔNG TIN THIẾT BỊ</t>
+  </si>
+  <si>
+    <t>THÔNG TIN ĐƠN VỊ YÊU CẦU</t>
+  </si>
+  <si>
+    <t>⚠️ SC.XX.241114.000 🛠️ Thiết bị bật không lên nguồn 🛠️
+♟️BG.BTĐ.DVCTM.001⚙️Bơm tiêm điện⚙️TE-SS700⚙️1810010532⚙️Nhật Bản
+👨‍🔧nhương võ 📅21/10/2024​</t>
+  </si>
+  <si>
+    <t>Theo IDDataSC trong sheet DataSC</t>
+  </si>
+  <si>
+    <t>Tương tự trên</t>
+  </si>
+  <si>
+    <t>Có</t>
+  </si>
+  <si>
+    <t>Tình trang thiết bị khảo sát/DataSC</t>
+  </si>
+  <si>
+    <t>Kết luận khảo sát/DataSC</t>
+  </si>
+  <si>
+    <t>Đề xuất phương án/DataSC</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Đại diện BV 1/DSUserDV</t>
+  </si>
+  <si>
+    <t>Chức vụ DD BV 1/DSUserDV</t>
+  </si>
+  <si>
+    <t>Người dùng tự nhập (Initial value - Tình trạng thiết bị đơn vị báo/DataSC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Đại diện BV 2/DSUserDV</t>
+  </si>
+  <si>
+    <t>Chức vụ DD BV 2/DSUserDV</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Đại diện BV 3/DSUserDV</t>
+  </si>
+  <si>
+    <t>Chức vụ DD BV 3/DSUserDV</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Đại diện BV 4/DSUserDV</t>
+  </si>
+  <si>
+    <t>Chức vụ DD BV 4/DSUserDV</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Đại diện BV 5/DSUserDV</t>
+  </si>
+  <si>
+    <t>Chức vụ DD BV 5/DSUserDV</t>
+  </si>
+  <si>
+    <t>Đại diện ĐV Báo sửa 1/DSUserDV</t>
+  </si>
+  <si>
+    <t>Chức vụ DD ĐV Báo sửa 1/DSUserDV</t>
+  </si>
+  <si>
+    <t>Đại diện ĐV Báo sửa 2/DSUserDV</t>
+  </si>
+  <si>
+    <t>Chức vụ DD ĐV Báo sửa 2/DSUserDV</t>
+  </si>
+  <si>
+    <t>Quyết định tổ khảo sát/DSUserDV</t>
+  </si>
+  <si>
+    <t>Ngày khảo sát/DataSC</t>
+  </si>
+  <si>
+    <t>Nội dung đề nghi/DataSC</t>
+  </si>
+  <si>
+    <t>Ngày đề nghi/DataSC</t>
+  </si>
+  <si>
+    <t>Tình trạng thiết bị sau khi sửa chữa</t>
+  </si>
+  <si>
+    <t>Ngày bàn giao/DataSC</t>
+  </si>
+  <si>
+    <t>Tình trạng thiết bị bàn giao/DataSC</t>
+  </si>
+  <si>
+    <t>Báo hỏng</t>
+  </si>
+  <si>
+    <t>Đang sửa</t>
+  </si>
+  <si>
+    <t>Bảo hành</t>
+  </si>
+  <si>
+    <t>Sửa ngoài</t>
+  </si>
+  <si>
+    <t>Ẩn</t>
+  </si>
+  <si>
+    <t>- Mở (Expand): Hiển thị nội dung chi tiết.
+- Đóng (Collapse): Ẩn nội dung.
+- Ẩn: Không hiển thị</t>
+  </si>
+  <si>
+    <t>Phần detail thiếu phần hiển thị nội dung vắn tắt</t>
+  </si>
+  <si>
+    <t>Kéo tổng thể của detail</t>
+  </si>
+  <si>
+    <t>Tạo ra biên bản</t>
+  </si>
+  <si>
+    <t>BM.VTTB.09.02 Biên bản khảo sát tình trạng thiết bị hỏng</t>
+  </si>
+  <si>
+    <t>- BM.VTTB.09.03 Giấy đề nghị phương án sửa chữa
+- BM.VTTB.09.04 Biên bản bàn giao, nghiệm thu, đưa vào sử dụng</t>
+  </si>
+  <si>
+    <t>BM.VTTB.09.04 Biên bản bàn giao, nghiệm thu, đưa vào sử dụng</t>
+  </si>
+  <si>
+    <t>CÁC NHÓM</t>
+  </si>
+  <si>
+    <t>Collapse
+(Read Only)</t>
+  </si>
+  <si>
+    <t>Expand
+(Edit Enable)</t>
+  </si>
+  <si>
+    <t>Collapse
+(Edit Enable)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- Kiểu: ComboBox
+- Sửa: Cho phép chọn
+- Lấy dữ liệu: 
++ Danh sách đề xuất (Suggested values) cột Mã thiết bị/DSThietBi được lọc theo </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>đơn vị yêu cầu và Nhóm thiết bị</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
++ Tên ghi sẵn (Initial value): Không
+- Ghi dữ liệu: Ghi IDThietBi/DataSC</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="2"/>
+      <charset val="163"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="2"/>
+      <charset val="163"/>
     </font>
     <font>
       <sz val="14"/>
@@ -339,8 +929,62 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF006100"/>
+      <name val="Times New Roman"/>
+      <family val="2"/>
+      <charset val="163"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF9C0006"/>
+      <name val="Times New Roman"/>
+      <family val="2"/>
+      <charset val="163"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF9C5700"/>
+      <name val="Times New Roman"/>
+      <family val="2"/>
+      <charset val="163"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF212529"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF212529"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF006100"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -374,6 +1018,57 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF34A853"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF660000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4285F4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF00FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -439,119 +1134,258 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="1" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="4" xr:uid="{B185EF3F-18AB-4F9D-B92B-704D856ABD92}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -570,23 +1404,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>549089</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>1311088</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>548514</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>2970130</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>5200012</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1171449</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27764762-E22E-418B-864E-AE7E1F56BF9F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A4465A6-DA89-4800-B44A-59CAFC6B19ED}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -602,8 +1436,96 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10174942" y="23823706"/>
-          <a:ext cx="9076190" cy="1704762"/>
+          <a:off x="11820525" y="400050"/>
+          <a:ext cx="5104762" cy="1009524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>5542867</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1038107</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D169485E-90DC-476F-9575-40E9F277F13D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11801475" y="1733550"/>
+          <a:ext cx="5466667" cy="942857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>54428</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>54428</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>7082999</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1482999</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E424B929-2F77-4FB4-1A30-31367548E91A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12083142" y="6085114"/>
+          <a:ext cx="7028571" cy="1428571"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -881,7 +1803,7 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -926,7 +1848,7 @@
       <c r="D2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="44" t="s">
         <v>10</v>
       </c>
     </row>
@@ -943,7 +1865,7 @@
       <c r="D3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="18"/>
+      <c r="E3" s="45"/>
     </row>
     <row r="4" spans="1:7" ht="75" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
@@ -1058,12 +1980,1735 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6534A241-07E3-4EC1-9ED6-D65C9D3E5D56}">
+  <dimension ref="A1:I33"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="17.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26.5703125" style="15" customWidth="1"/>
+    <col min="4" max="4" width="24" style="15" customWidth="1"/>
+    <col min="5" max="5" width="41.28515625" style="15" customWidth="1"/>
+    <col min="6" max="9" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" spans="1:7" s="1" customFormat="1" ht="56.25" x14ac:dyDescent="0.3">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="77" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="78"/>
+      <c r="C3" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
+      <c r="B4" s="78"/>
+      <c r="C4" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="6">
+        <v>4</v>
+      </c>
+      <c r="B5" s="78"/>
+      <c r="C5" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="78"/>
+      <c r="C6" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6">
+        <v>6</v>
+      </c>
+      <c r="B7" s="78"/>
+      <c r="C7" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="6">
+        <v>7</v>
+      </c>
+      <c r="B8" s="79"/>
+      <c r="C8" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="6">
+        <v>8</v>
+      </c>
+      <c r="B9" s="80" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="6">
+        <v>9</v>
+      </c>
+      <c r="B10" s="82"/>
+      <c r="C10" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="1" customFormat="1" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="6">
+        <v>10</v>
+      </c>
+      <c r="B11" s="80" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="6">
+        <v>11</v>
+      </c>
+      <c r="B12" s="82"/>
+      <c r="C12" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+    </row>
+    <row r="14" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+    </row>
+    <row r="15" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+    </row>
+    <row r="16" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+    </row>
+    <row r="17" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+    </row>
+    <row r="18" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+    </row>
+    <row r="19" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+    </row>
+    <row r="20" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+    </row>
+    <row r="21" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+    </row>
+    <row r="22" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+    </row>
+    <row r="23" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+    </row>
+    <row r="24" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+    </row>
+    <row r="25" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+    </row>
+    <row r="26" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+    </row>
+    <row r="27" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+    </row>
+    <row r="28" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="6"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+    </row>
+    <row r="29" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="6"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+    </row>
+    <row r="30" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="6"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+    </row>
+    <row r="31" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="6"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+    </row>
+    <row r="32" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="6"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+    </row>
+    <row r="33" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B2:B8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDCE7A98-779E-41D7-8A87-2963F59DF26D}">
+  <dimension ref="A2:K38"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="3" width="17.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26.5703125" style="15" customWidth="1"/>
+    <col min="5" max="5" width="24" style="15" customWidth="1"/>
+    <col min="6" max="6" width="63.5703125" style="15" customWidth="1"/>
+    <col min="7" max="8" width="9.140625" style="1"/>
+    <col min="9" max="9" width="107.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="16" style="1" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="1" customFormat="1" ht="110.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="3"/>
+      <c r="H3" s="6">
+        <v>1</v>
+      </c>
+      <c r="I3" s="16"/>
+      <c r="J3" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="1" customFormat="1" ht="90.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6">
+        <v>1</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" s="6">
+        <v>2</v>
+      </c>
+      <c r="I4" s="16"/>
+      <c r="J4" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" s="1" customFormat="1" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="6">
+        <v>2</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="47"/>
+      <c r="D5" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" s="6">
+        <v>3</v>
+      </c>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+    </row>
+    <row r="6" spans="1:11" s="1" customFormat="1" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="6">
+        <v>3</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="48"/>
+      <c r="D6" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+    </row>
+    <row r="7" spans="1:11" s="1" customFormat="1" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6">
+        <v>4</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="49" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="K7"/>
+    </row>
+    <row r="8" spans="1:11" s="1" customFormat="1" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="6">
+        <v>5</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="50"/>
+      <c r="D8" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="J8" s="4"/>
+      <c r="K8"/>
+    </row>
+    <row r="9" spans="1:11" s="1" customFormat="1" ht="122.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="6">
+        <v>6</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="6">
+        <v>1</v>
+      </c>
+      <c r="I9" s="16"/>
+      <c r="J9" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="1" customFormat="1" ht="114.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="6">
+        <v>7</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="52"/>
+      <c r="D10" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="H10" s="6">
+        <v>2</v>
+      </c>
+      <c r="I10" s="16"/>
+      <c r="J10" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" s="1" customFormat="1" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="6">
+        <v>8</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="52"/>
+      <c r="D11" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="H11" s="6">
+        <v>3</v>
+      </c>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+    </row>
+    <row r="12" spans="1:11" s="1" customFormat="1" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A12" s="6">
+        <v>9</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="52"/>
+      <c r="D12" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" s="1" customFormat="1" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A13" s="6">
+        <v>10</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="52"/>
+      <c r="D13" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" s="1" customFormat="1" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A14" s="6">
+        <v>11</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="52"/>
+      <c r="D14" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" s="1" customFormat="1" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A15" s="6">
+        <v>12</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="52"/>
+      <c r="D15" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" s="1" customFormat="1" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A16" s="6">
+        <v>13</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="52"/>
+      <c r="D16" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="1" customFormat="1" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A17" s="6">
+        <v>14</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="52"/>
+      <c r="D17" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="1" customFormat="1" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A18" s="6">
+        <v>15</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="53"/>
+      <c r="D18" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="1" customFormat="1" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A19" s="6">
+        <v>16</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="57" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A20" s="6">
+        <v>16</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="58"/>
+      <c r="D20" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="206.25" x14ac:dyDescent="0.3">
+      <c r="A21" s="6">
+        <v>17</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="54" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="112.5" x14ac:dyDescent="0.3">
+      <c r="A22" s="6">
+        <v>18</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="55"/>
+      <c r="D22" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F22" s="10"/>
+    </row>
+    <row r="23" spans="1:6" ht="131.25" x14ac:dyDescent="0.3">
+      <c r="A23" s="6">
+        <v>19</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="55"/>
+      <c r="D23" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" s="10"/>
+    </row>
+    <row r="24" spans="1:6" ht="112.5" x14ac:dyDescent="0.3">
+      <c r="A24" s="6">
+        <v>20</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="55"/>
+      <c r="D24" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="112.5" x14ac:dyDescent="0.3">
+      <c r="A25" s="6">
+        <v>21</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="55"/>
+      <c r="D25" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="112.5" x14ac:dyDescent="0.3">
+      <c r="A26" s="6">
+        <v>22</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="56"/>
+      <c r="D26" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="187.5" x14ac:dyDescent="0.3">
+      <c r="A27" s="6">
+        <v>23</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C27" s="6"/>
+      <c r="D27" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="F27" s="14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="6">
+        <v>24</v>
+      </c>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="6">
+        <v>25</v>
+      </c>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="6">
+        <v>26</v>
+      </c>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="6">
+        <v>27</v>
+      </c>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="6">
+        <v>28</v>
+      </c>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="6">
+        <v>29</v>
+      </c>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="6">
+        <v>30</v>
+      </c>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="6">
+        <v>31</v>
+      </c>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="6">
+        <v>32</v>
+      </c>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="6">
+        <v>33</v>
+      </c>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="6">
+        <v>34</v>
+      </c>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C9:C18"/>
+    <mergeCell ref="C21:C26"/>
+    <mergeCell ref="C19:C20"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7827E341-0F02-4F9E-A029-577A36E5783D}">
+  <dimension ref="A1:I21"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6" style="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.7109375" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.7109375" style="19" customWidth="1"/>
+    <col min="4" max="5" width="44.7109375" style="19" customWidth="1"/>
+    <col min="6" max="7" width="17.42578125" style="19" customWidth="1"/>
+    <col min="8" max="8" width="24.7109375" style="19" customWidth="1"/>
+    <col min="9" max="9" width="28.7109375" style="19" customWidth="1"/>
+    <col min="10" max="16384" width="8.85546875" style="18"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>175</v>
+      </c>
+      <c r="C1" s="34" t="s">
+        <v>174</v>
+      </c>
+      <c r="D1" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="34" t="s">
+        <v>174</v>
+      </c>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+    </row>
+    <row r="2" spans="1:9" ht="112.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="23">
+        <v>1</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="D2" s="33" t="s">
+        <v>172</v>
+      </c>
+      <c r="E2" s="33" t="str">
+        <f t="shared" ref="E2:E21" si="0">"- Kiểu: "&amp;F2&amp;CHAR(10)&amp;
+"- Sửa: "&amp;G2&amp;CHAR(10)&amp;
+"- Lấy dữ liệu: " &amp;H2&amp;CHAR(10)&amp;
+"- Ghi dữ liệu: "&amp;I2</f>
+        <v>- Kiểu: Textbox
+- Sửa: Không sửa
+- Lấy dữ liệu: Theo tên đăng nhập (Username -&gt; Đơn vị/DSUserDV)
+- Ghi dữ liệu: IDUserDV/DataSC (Username -&gt; IDUser/DSUserDV)</v>
+      </c>
+      <c r="F2" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="G2" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="H2" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="I2" s="32" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="112.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="23">
+        <v>2</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>169</v>
+      </c>
+      <c r="D3" s="32" t="s">
+        <v>168</v>
+      </c>
+      <c r="E3" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v>- Kiểu: Textbox
+- Sửa: Có sửa
+- Lấy dữ liệu: Theo tên đăng nhập (Username -&gt; Họ và tên/DSUserDV)
+- Ghi dữ liệu: Nếu có thay đổi thì ghi vào  Họ và tên/DSUserDV</v>
+      </c>
+      <c r="F3" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="G3" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="H3" s="32" t="s">
+        <v>167</v>
+      </c>
+      <c r="I3" s="32" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="131.25" x14ac:dyDescent="0.3">
+      <c r="A4" s="23">
+        <v>3</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>165</v>
+      </c>
+      <c r="D4" s="32" t="s">
+        <v>164</v>
+      </c>
+      <c r="E4" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v>- Kiểu: Textbox
+- Sửa: Có sửa
+- Lấy dữ liệu: Theo tên đăng nhập (Username -&gt; Số điện thoại/DSUserDV)
+- Ghi dữ liệu: Nếu có thay đổi thì ghi vào  Số điện thoại/DSUserDV</v>
+      </c>
+      <c r="F4" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="G4" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="H4" s="32" t="s">
+        <v>163</v>
+      </c>
+      <c r="I4" s="32" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="243.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="23">
+        <v>4</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>161</v>
+      </c>
+      <c r="D5" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="E5" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v>- Kiểu: ComboBox
+- Sửa: Cho phép chọn
+- Lấy dữ liệu: 
++ Danh sách đề xuất (Suggested values) toàn bộ cột Họ và tên/DSUserSua
++ Tên ghi sẵn (Initial value) cột Người sửa chữa/DSUserDV (tìm theo Username -&gt; Người sửa chữa/DSUserDV)
+- Ghi dữ liệu: Ghi vào 2 nơi:
++ IDUserSua/DataSC
++ Người sửa chữa/DSUserDV</v>
+      </c>
+      <c r="F5" s="32" t="s">
+        <v>142</v>
+      </c>
+      <c r="G5" s="32" t="s">
+        <v>141</v>
+      </c>
+      <c r="H5" s="33" t="s">
+        <v>159</v>
+      </c>
+      <c r="I5" s="32" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="112.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="23">
+        <v>5</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>157</v>
+      </c>
+      <c r="D6" s="32"/>
+      <c r="E6" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v>- Kiểu: Textbox
+- Sửa: Không sửa
+- Lấy dữ liệu: Theo tên Người sửa chữa (Họ và tên -&gt; Số điện thoại/DSUserSua)
+- Ghi dữ liệu: Không</v>
+      </c>
+      <c r="F6" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="G6" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="H6" s="32" t="s">
+        <v>156</v>
+      </c>
+      <c r="I6" s="32" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="187.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="23">
+        <v>6</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>155</v>
+      </c>
+      <c r="D7" s="32"/>
+      <c r="E7" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v>- Kiểu: ComboBox
+- Sửa: Cho phép chọn
+- Lấy dữ liệu: 
++ Danh sách đề xuất (Suggested values) cột Nhóm thiết bị/DSThietBi được lọc theo đơn vị yêu cầu
++ Tên ghi sẵn (Initial value): Không
+- Ghi dữ liệu: Ghi IDThietBi/DataSC (Dựa trên lựa chọn của Nhóm dữ liệu và mã thiết bị)</v>
+      </c>
+      <c r="F7" s="32" t="s">
+        <v>142</v>
+      </c>
+      <c r="G7" s="32" t="s">
+        <v>141</v>
+      </c>
+      <c r="H7" s="33" t="s">
+        <v>154</v>
+      </c>
+      <c r="I7" s="32" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="168.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="23">
+        <v>7</v>
+      </c>
+      <c r="B8" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="43" t="s">
+        <v>247</v>
+      </c>
+      <c r="D8" s="32"/>
+      <c r="E8" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v>- Kiểu: ComboBox
+- Sửa: Cho phép chọn
+- Lấy dữ liệu: 
++ Danh sách đề xuất (Suggested values) cột Mã thiết bị/DSThietBi được lọc theo đơn vị yêu cầu và Nhóm thiết bị
++ Tên ghi sẵn (Initial value): Không
+- Ghi dữ liệu: Ghi IDThietBi/DataSC</v>
+      </c>
+      <c r="F8" s="32" t="s">
+        <v>142</v>
+      </c>
+      <c r="G8" s="32" t="s">
+        <v>141</v>
+      </c>
+      <c r="H8" s="33" t="s">
+        <v>152</v>
+      </c>
+      <c r="I8" s="32" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="93.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="23">
+        <v>8</v>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="D9" s="32"/>
+      <c r="E9" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v>- Kiểu: Textbox
+- Sửa: Không sửa
+- Lấy dữ liệu: Sheet DSThietBi dựa trên Mã thiết bị
+- Ghi dữ liệu: Không</v>
+      </c>
+      <c r="F9" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="G9" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="H9" s="32" t="s">
+        <v>147</v>
+      </c>
+      <c r="I9" s="32" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="93.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="23">
+        <v>9</v>
+      </c>
+      <c r="B10" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="D10" s="32"/>
+      <c r="E10" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v>- Kiểu: Textbox
+- Sửa: Không sửa
+- Lấy dữ liệu: Sheet DSThietBi dựa trên Mã thiết bị
+- Ghi dữ liệu: Không</v>
+      </c>
+      <c r="F10" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="G10" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="H10" s="32" t="s">
+        <v>147</v>
+      </c>
+      <c r="I10" s="32" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="93.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="23">
+        <v>10</v>
+      </c>
+      <c r="B11" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="D11" s="32"/>
+      <c r="E11" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v>- Kiểu: Textbox
+- Sửa: Không sửa
+- Lấy dữ liệu: Sheet DSThietBi dựa trên Mã thiết bị
+- Ghi dữ liệu: Không</v>
+      </c>
+      <c r="F11" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="G11" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="H11" s="32" t="s">
+        <v>147</v>
+      </c>
+      <c r="I11" s="32" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="93.75" x14ac:dyDescent="0.3">
+      <c r="A12" s="23">
+        <v>11</v>
+      </c>
+      <c r="B12" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="D12" s="32"/>
+      <c r="E12" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v>- Kiểu: Textbox
+- Sửa: Không sửa
+- Lấy dữ liệu: Sheet DSThietBi dựa trên Mã thiết bị
+- Ghi dữ liệu: Không</v>
+      </c>
+      <c r="F12" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="G12" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="H12" s="32" t="s">
+        <v>147</v>
+      </c>
+      <c r="I12" s="32" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="93.75" x14ac:dyDescent="0.3">
+      <c r="A13" s="23">
+        <v>12</v>
+      </c>
+      <c r="B13" s="32" t="s">
+        <v>150</v>
+      </c>
+      <c r="C13" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="D13" s="32"/>
+      <c r="E13" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v>- Kiểu: Textbox
+- Sửa: Không sửa
+- Lấy dữ liệu: Sheet DSThietBi dựa trên Mã thiết bị
+- Ghi dữ liệu: Không</v>
+      </c>
+      <c r="F13" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="G13" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="H13" s="32" t="s">
+        <v>147</v>
+      </c>
+      <c r="I13" s="32" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="93.75" x14ac:dyDescent="0.3">
+      <c r="A14" s="23">
+        <v>13</v>
+      </c>
+      <c r="B14" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="D14" s="32"/>
+      <c r="E14" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v>- Kiểu: Textbox
+- Sửa: Không sửa
+- Lấy dữ liệu: Sheet DSThietBi dựa trên Mã thiết bị
+- Ghi dữ liệu: Không</v>
+      </c>
+      <c r="F14" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="G14" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="H14" s="32" t="s">
+        <v>147</v>
+      </c>
+      <c r="I14" s="32" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="93.75" x14ac:dyDescent="0.3">
+      <c r="A15" s="23">
+        <v>14</v>
+      </c>
+      <c r="B15" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="D15" s="32"/>
+      <c r="E15" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v>- Kiểu: Textbox
+- Sửa: Không sửa
+- Lấy dữ liệu: Sheet DSThietBi dựa trên Mã thiết bị
+- Ghi dữ liệu: Không</v>
+      </c>
+      <c r="F15" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="G15" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="H15" s="32" t="s">
+        <v>147</v>
+      </c>
+      <c r="I15" s="32" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="93.75" x14ac:dyDescent="0.3">
+      <c r="A16" s="23">
+        <v>15</v>
+      </c>
+      <c r="B16" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="D16" s="32"/>
+      <c r="E16" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v>- Kiểu: Textbox
+- Sửa: Không sửa
+- Lấy dữ liệu: Sheet DSThietBi dựa trên Mã thiết bị
+- Ghi dữ liệu: Không</v>
+      </c>
+      <c r="F16" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="G16" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="H16" s="32" t="s">
+        <v>147</v>
+      </c>
+      <c r="I16" s="32" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="93.75" x14ac:dyDescent="0.3">
+      <c r="A17" s="23">
+        <v>16</v>
+      </c>
+      <c r="B17" s="32" t="s">
+        <v>149</v>
+      </c>
+      <c r="C17" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="D17" s="32"/>
+      <c r="E17" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v>- Kiểu: Textbox
+- Sửa: Không sửa
+- Lấy dữ liệu: Sheet DSThietBi dựa trên Mã thiết bị
+- Ghi dữ liệu: Không</v>
+      </c>
+      <c r="F17" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="G17" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="H17" s="32" t="s">
+        <v>147</v>
+      </c>
+      <c r="I17" s="32" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="93.75" x14ac:dyDescent="0.3">
+      <c r="A18" s="23">
+        <v>17</v>
+      </c>
+      <c r="B18" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="D18" s="32"/>
+      <c r="E18" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v>- Kiểu: Textbox
+- Sửa: Có sửa
+- Lấy dữ liệu: Người dùng tự nhập
+- Ghi dữ liệu: Tình trạng thiết bị đơn vị báo/DataSC</v>
+      </c>
+      <c r="F18" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="G18" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="H18" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="I18" s="32" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="93.75" x14ac:dyDescent="0.3">
+      <c r="A19" s="23">
+        <v>18</v>
+      </c>
+      <c r="B19" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="D19" s="32"/>
+      <c r="E19" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v>- Kiểu: ComboBox
+- Sửa: Cho phép chọn
+- Lấy dữ liệu: List 3 mức: Thường, Gấp, Rất gấp
+- Ghi dữ liệu: Mức độ/DataSC</v>
+      </c>
+      <c r="F19" s="32" t="s">
+        <v>142</v>
+      </c>
+      <c r="G19" s="32" t="s">
+        <v>141</v>
+      </c>
+      <c r="H19" s="32" t="s">
+        <v>140</v>
+      </c>
+      <c r="I19" s="32" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="93.75" x14ac:dyDescent="0.3">
+      <c r="A20" s="23">
+        <v>19</v>
+      </c>
+      <c r="B20" s="32" t="s">
+        <v>138</v>
+      </c>
+      <c r="C20" s="32" t="s">
+        <v>137</v>
+      </c>
+      <c r="D20" s="32"/>
+      <c r="E20" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v>- Kiểu: Textbox
+- Sửa: Không sửa
+- Lấy dữ liệu: Lấy ngày hiện tại
+- Ghi dữ liệu: Ngày đơn vị báo/DataSC</v>
+      </c>
+      <c r="F20" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="G20" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="H20" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="I20" s="32" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="75" x14ac:dyDescent="0.3">
+      <c r="A21" s="23">
+        <v>20</v>
+      </c>
+      <c r="B21" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" s="32" t="s">
+        <v>133</v>
+      </c>
+      <c r="D21" s="32"/>
+      <c r="E21" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v>- Kiểu: Textbox
+- Sửa: Có sửa
+- Lấy dữ liệu: Người dùng tự nhập
+- Ghi dữ liệu: Ghi chú/DataSC</v>
+      </c>
+      <c r="F21" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="G21" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="H21" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="I21" s="32" t="s">
+        <v>129</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B1C74FB-4B03-475A-A078-5E266F1CC6D7}">
   <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -1080,6 +3725,7 @@
       <c r="A1" s="2" t="s">
         <v>78</v>
       </c>
+      <c r="E1" s="17"/>
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
@@ -1110,18 +3756,12 @@
       <c r="B3" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>47</v>
-      </c>
+      <c r="D3" s="14"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="16"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
@@ -1130,110 +3770,74 @@
       <c r="B4" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="20"/>
-      <c r="D4" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="1" customFormat="1" ht="56.25" x14ac:dyDescent="0.3">
+      <c r="C4" s="47"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="16"/>
+    </row>
+    <row r="5" spans="1:8" s="1" customFormat="1" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>3</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" s="1" customFormat="1" ht="131.25" x14ac:dyDescent="0.3">
+      <c r="C5" s="48"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="16"/>
+    </row>
+    <row r="6" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>4</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" s="1" customFormat="1" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="D6" s="14"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="16"/>
+    </row>
+    <row r="7" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>5</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C7" s="23"/>
-      <c r="D7" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" s="1" customFormat="1" ht="131.25" x14ac:dyDescent="0.3">
+      <c r="C7" s="50"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="16"/>
+    </row>
+    <row r="8" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>6</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.3">
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="16"/>
+    </row>
+    <row r="9" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>7</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="25"/>
-      <c r="D9" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>84</v>
-      </c>
+      <c r="C9" s="52"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="16"/>
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
@@ -1242,16 +3846,10 @@
       <c r="B10" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="25"/>
-      <c r="D10" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>54</v>
-      </c>
+      <c r="C10" s="52"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="14"/>
     </row>
     <row r="11" spans="1:8" s="1" customFormat="1" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
@@ -1260,16 +3858,10 @@
       <c r="B11" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="25"/>
-      <c r="D11" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>54</v>
-      </c>
+      <c r="C11" s="52"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="14"/>
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
@@ -1278,16 +3870,10 @@
       <c r="B12" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="25"/>
-      <c r="D12" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>54</v>
-      </c>
+      <c r="C12" s="52"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="14"/>
     </row>
     <row r="13" spans="1:8" s="1" customFormat="1" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
@@ -1296,16 +3882,10 @@
       <c r="B13" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="25"/>
-      <c r="D13" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F13" s="14" t="s">
-        <v>54</v>
-      </c>
+      <c r="C13" s="52"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="14"/>
     </row>
     <row r="14" spans="1:8" s="1" customFormat="1" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
@@ -1314,16 +3894,10 @@
       <c r="B14" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="25"/>
-      <c r="D14" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F14" s="14" t="s">
-        <v>54</v>
-      </c>
+      <c r="C14" s="52"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="14"/>
     </row>
     <row r="15" spans="1:8" s="1" customFormat="1" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
@@ -1332,16 +3906,10 @@
       <c r="B15" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="25"/>
-      <c r="D15" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="F15" s="14" t="s">
-        <v>54</v>
-      </c>
+      <c r="C15" s="52"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="14"/>
     </row>
     <row r="16" spans="1:8" s="1" customFormat="1" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
@@ -1350,16 +3918,10 @@
       <c r="B16" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="25"/>
-      <c r="D16" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="F16" s="14" t="s">
-        <v>54</v>
-      </c>
+      <c r="C16" s="52"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="14"/>
     </row>
     <row r="17" spans="1:6" s="1" customFormat="1" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
@@ -1368,162 +3930,112 @@
       <c r="B17" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="26"/>
-      <c r="D17" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F17" s="14" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" s="1" customFormat="1" ht="56.25" x14ac:dyDescent="0.3">
+      <c r="C17" s="53"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="14"/>
+    </row>
+    <row r="18" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>16</v>
       </c>
       <c r="B18" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="30" t="s">
+      <c r="C18" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="F18" s="14" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="D18" s="14"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="14"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <v>16</v>
       </c>
       <c r="B19" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C19" s="31"/>
-      <c r="D19" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="E19" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="F19" s="14" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="206.25" x14ac:dyDescent="0.3">
+      <c r="C19" s="58"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <v>17</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="27" t="s">
+      <c r="C20" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="D20" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="F20" s="14" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="112.5" x14ac:dyDescent="0.3">
+      <c r="D20" s="14"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="14"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>18</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="28"/>
-      <c r="D21" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>37</v>
-      </c>
+      <c r="C21" s="55"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="10"/>
       <c r="F21" s="10"/>
     </row>
-    <row r="22" spans="1:6" ht="131.25" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <v>19</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="28"/>
-      <c r="D22" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>44</v>
-      </c>
+      <c r="C22" s="55"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="10"/>
       <c r="F22" s="10"/>
     </row>
-    <row r="23" spans="1:6" ht="112.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
         <v>20</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="28"/>
-      <c r="D23" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="F23" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="112.5" x14ac:dyDescent="0.3">
+      <c r="C23" s="55"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
         <v>21</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="28"/>
-      <c r="D24" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="F24" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="112.5" x14ac:dyDescent="0.3">
+      <c r="C24" s="55"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="6">
         <v>22</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="29"/>
-      <c r="D25" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E25" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="F25" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="243.75" x14ac:dyDescent="0.3">
+      <c r="C25" s="56"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
         <v>23</v>
       </c>
@@ -1531,15 +4043,9 @@
         <v>79</v>
       </c>
       <c r="C26" s="6"/>
-      <c r="D26" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="E26" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="F26" s="14" t="s">
-        <v>81</v>
-      </c>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="6">
@@ -1656,21 +4162,3379 @@
     <mergeCell ref="C3:C5"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="C8:C17"/>
+    <mergeCell ref="C18:C19"/>
     <mergeCell ref="C20:C25"/>
-    <mergeCell ref="C18:C19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{000207E9-3E78-4F35-971B-19B01FD4CB8B}">
+  <dimension ref="B2:J61"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="10" width="15.140625" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:10" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="61" t="s">
+        <v>202</v>
+      </c>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+    </row>
+    <row r="3" spans="2:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="59" t="s">
+        <v>201</v>
+      </c>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B4" s="62" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62" t="s">
+        <v>60</v>
+      </c>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B5" s="60"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="60"/>
+    </row>
+    <row r="6" spans="2:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="59" t="s">
+        <v>200</v>
+      </c>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="59"/>
+      <c r="H6" s="59"/>
+      <c r="I6" s="59"/>
+      <c r="J6" s="59"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B7" s="63" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="63"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="63" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="63"/>
+      <c r="I7" s="63"/>
+      <c r="J7" s="63"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B8" s="63"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="63"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="63"/>
+      <c r="J8" s="63"/>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B9" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="63"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="63" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="63"/>
+      <c r="I9" s="63"/>
+      <c r="J9" s="63"/>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B10" s="63"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="63"/>
+      <c r="G10" s="63"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="63"/>
+      <c r="J10" s="63"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B11" s="63" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="63"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="63" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" s="63"/>
+      <c r="I11" s="63"/>
+      <c r="J11" s="63"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B12" s="63"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="63"/>
+      <c r="F12" s="63"/>
+      <c r="G12" s="63"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="63"/>
+      <c r="J12" s="63"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B13" s="63" t="s">
+        <v>108</v>
+      </c>
+      <c r="C13" s="63"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" s="63"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="63"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B14" s="63"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="63"/>
+      <c r="J14" s="63"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B15" s="63" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="63"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="63" t="s">
+        <v>29</v>
+      </c>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="63"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B16" s="63"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="63"/>
+      <c r="G16" s="63"/>
+      <c r="H16" s="63"/>
+      <c r="I16" s="63"/>
+      <c r="J16" s="63"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B17" s="59" t="s">
+        <v>199</v>
+      </c>
+      <c r="C17" s="59"/>
+      <c r="D17" s="59"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="59"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B18" s="63" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="63"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="63"/>
+      <c r="F18" s="63"/>
+      <c r="G18" s="63" t="s">
+        <v>198</v>
+      </c>
+      <c r="H18" s="63"/>
+      <c r="I18" s="63"/>
+      <c r="J18" s="63"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B19" s="63"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="63"/>
+      <c r="J19" s="63"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B20" s="63" t="s">
+        <v>197</v>
+      </c>
+      <c r="C20" s="63"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="63"/>
+      <c r="F20" s="63"/>
+      <c r="G20" s="63" t="s">
+        <v>2</v>
+      </c>
+      <c r="H20" s="63"/>
+      <c r="I20" s="63"/>
+      <c r="J20" s="63"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B21" s="63"/>
+      <c r="C21" s="63"/>
+      <c r="D21" s="63"/>
+      <c r="E21" s="63"/>
+      <c r="F21" s="63"/>
+      <c r="G21" s="63"/>
+      <c r="H21" s="63"/>
+      <c r="I21" s="63"/>
+      <c r="J21" s="63"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B22" s="63" t="s">
+        <v>196</v>
+      </c>
+      <c r="C22" s="63"/>
+      <c r="D22" s="63"/>
+      <c r="E22" s="63"/>
+      <c r="F22" s="63"/>
+      <c r="G22" s="63" t="s">
+        <v>187</v>
+      </c>
+      <c r="H22" s="63"/>
+      <c r="I22" s="63"/>
+      <c r="J22" s="63"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B23" s="63"/>
+      <c r="C23" s="63"/>
+      <c r="D23" s="63"/>
+      <c r="E23" s="63"/>
+      <c r="F23" s="63"/>
+      <c r="G23" s="63"/>
+      <c r="H23" s="63"/>
+      <c r="I23" s="63"/>
+      <c r="J23" s="63"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B24" s="63" t="s">
+        <v>195</v>
+      </c>
+      <c r="C24" s="63"/>
+      <c r="D24" s="63"/>
+      <c r="E24" s="63"/>
+      <c r="F24" s="63"/>
+      <c r="G24" s="63" t="s">
+        <v>185</v>
+      </c>
+      <c r="H24" s="63"/>
+      <c r="I24" s="63"/>
+      <c r="J24" s="63"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B25" s="63"/>
+      <c r="C25" s="63"/>
+      <c r="D25" s="63"/>
+      <c r="E25" s="63"/>
+      <c r="F25" s="63"/>
+      <c r="G25" s="63"/>
+      <c r="H25" s="63"/>
+      <c r="I25" s="63"/>
+      <c r="J25" s="63"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B26" s="63" t="s">
+        <v>194</v>
+      </c>
+      <c r="C26" s="63"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="63"/>
+      <c r="F26" s="63"/>
+      <c r="G26" s="63" t="s">
+        <v>193</v>
+      </c>
+      <c r="H26" s="63"/>
+      <c r="I26" s="63"/>
+      <c r="J26" s="63"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B27" s="63"/>
+      <c r="C27" s="63"/>
+      <c r="D27" s="63"/>
+      <c r="E27" s="63"/>
+      <c r="F27" s="63"/>
+      <c r="G27" s="63"/>
+      <c r="H27" s="63"/>
+      <c r="I27" s="63"/>
+      <c r="J27" s="63"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B28" s="63" t="s">
+        <v>192</v>
+      </c>
+      <c r="C28" s="63"/>
+      <c r="D28" s="63"/>
+      <c r="E28" s="63"/>
+      <c r="F28" s="63"/>
+      <c r="G28" s="63" t="s">
+        <v>191</v>
+      </c>
+      <c r="H28" s="63"/>
+      <c r="I28" s="63"/>
+      <c r="J28" s="63"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B29" s="63"/>
+      <c r="C29" s="63"/>
+      <c r="D29" s="63"/>
+      <c r="E29" s="63"/>
+      <c r="F29" s="63"/>
+      <c r="G29" s="63"/>
+      <c r="H29" s="63"/>
+      <c r="I29" s="63"/>
+      <c r="J29" s="63"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B30" s="63" t="s">
+        <v>190</v>
+      </c>
+      <c r="C30" s="63"/>
+      <c r="D30" s="63"/>
+      <c r="E30" s="63"/>
+      <c r="F30" s="63"/>
+      <c r="G30" s="63" t="s">
+        <v>189</v>
+      </c>
+      <c r="H30" s="63"/>
+      <c r="I30" s="63"/>
+      <c r="J30" s="63"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B31" s="63"/>
+      <c r="C31" s="63"/>
+      <c r="D31" s="63"/>
+      <c r="E31" s="63"/>
+      <c r="F31" s="63"/>
+      <c r="G31" s="63"/>
+      <c r="H31" s="63"/>
+      <c r="I31" s="63"/>
+      <c r="J31" s="63"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B32" s="63" t="s">
+        <v>188</v>
+      </c>
+      <c r="C32" s="63"/>
+      <c r="D32" s="63"/>
+      <c r="E32" s="63"/>
+      <c r="F32" s="63"/>
+      <c r="G32" s="63" t="s">
+        <v>187</v>
+      </c>
+      <c r="H32" s="63"/>
+      <c r="I32" s="63"/>
+      <c r="J32" s="63"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B33" s="63"/>
+      <c r="C33" s="63"/>
+      <c r="D33" s="63"/>
+      <c r="E33" s="63"/>
+      <c r="F33" s="63"/>
+      <c r="G33" s="63"/>
+      <c r="H33" s="63"/>
+      <c r="I33" s="63"/>
+      <c r="J33" s="63"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B34" s="63" t="s">
+        <v>186</v>
+      </c>
+      <c r="C34" s="63"/>
+      <c r="D34" s="63"/>
+      <c r="E34" s="63"/>
+      <c r="F34" s="63"/>
+      <c r="G34" s="63" t="s">
+        <v>185</v>
+      </c>
+      <c r="H34" s="63"/>
+      <c r="I34" s="63"/>
+      <c r="J34" s="63"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B35" s="63"/>
+      <c r="C35" s="63"/>
+      <c r="D35" s="63"/>
+      <c r="E35" s="63"/>
+      <c r="F35" s="63"/>
+      <c r="G35" s="63"/>
+      <c r="H35" s="63"/>
+      <c r="I35" s="63"/>
+      <c r="J35" s="63"/>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B36" s="63" t="s">
+        <v>184</v>
+      </c>
+      <c r="C36" s="63"/>
+      <c r="D36" s="63"/>
+      <c r="E36" s="63"/>
+      <c r="F36" s="63"/>
+      <c r="G36" s="63" t="s">
+        <v>103</v>
+      </c>
+      <c r="H36" s="63"/>
+      <c r="I36" s="63"/>
+      <c r="J36" s="63"/>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B37" s="63"/>
+      <c r="C37" s="63"/>
+      <c r="D37" s="63"/>
+      <c r="E37" s="63"/>
+      <c r="F37" s="63"/>
+      <c r="G37" s="63"/>
+      <c r="H37" s="63"/>
+      <c r="I37" s="63"/>
+      <c r="J37" s="63"/>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B38" s="59" t="s">
+        <v>183</v>
+      </c>
+      <c r="C38" s="59"/>
+      <c r="D38" s="59"/>
+      <c r="E38" s="59"/>
+      <c r="F38" s="59"/>
+      <c r="G38" s="59"/>
+      <c r="H38" s="59"/>
+      <c r="I38" s="59"/>
+      <c r="J38" s="59"/>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B39" s="63" t="s">
+        <v>182</v>
+      </c>
+      <c r="C39" s="63"/>
+      <c r="D39" s="63"/>
+      <c r="E39" s="63"/>
+      <c r="F39" s="63"/>
+      <c r="G39" s="63" t="s">
+        <v>181</v>
+      </c>
+      <c r="H39" s="63"/>
+      <c r="I39" s="63"/>
+      <c r="J39" s="63"/>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B40" s="63"/>
+      <c r="C40" s="63"/>
+      <c r="D40" s="63"/>
+      <c r="E40" s="63"/>
+      <c r="F40" s="63"/>
+      <c r="G40" s="63"/>
+      <c r="H40" s="63"/>
+      <c r="I40" s="63"/>
+      <c r="J40" s="63"/>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B41" s="63" t="s">
+        <v>2</v>
+      </c>
+      <c r="C41" s="63"/>
+      <c r="D41" s="63"/>
+      <c r="E41" s="63"/>
+      <c r="F41" s="63"/>
+      <c r="G41" s="63"/>
+      <c r="H41" s="63"/>
+      <c r="I41" s="63"/>
+      <c r="J41" s="63"/>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B42" s="63"/>
+      <c r="C42" s="63"/>
+      <c r="D42" s="63"/>
+      <c r="E42" s="63"/>
+      <c r="F42" s="63"/>
+      <c r="G42" s="63"/>
+      <c r="H42" s="63"/>
+      <c r="I42" s="63"/>
+      <c r="J42" s="63"/>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B43" s="59" t="s">
+        <v>180</v>
+      </c>
+      <c r="C43" s="59"/>
+      <c r="D43" s="59"/>
+      <c r="E43" s="59"/>
+      <c r="F43" s="59"/>
+      <c r="G43" s="59"/>
+      <c r="H43" s="59"/>
+      <c r="I43" s="59"/>
+      <c r="J43" s="59"/>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B44" s="63" t="s">
+        <v>179</v>
+      </c>
+      <c r="C44" s="63"/>
+      <c r="D44" s="63"/>
+      <c r="E44" s="63"/>
+      <c r="F44" s="63"/>
+      <c r="G44" s="63" t="s">
+        <v>97</v>
+      </c>
+      <c r="H44" s="63"/>
+      <c r="I44" s="63"/>
+      <c r="J44" s="63"/>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B45" s="63"/>
+      <c r="C45" s="63"/>
+      <c r="D45" s="63"/>
+      <c r="E45" s="63"/>
+      <c r="F45" s="63"/>
+      <c r="G45" s="63"/>
+      <c r="H45" s="63"/>
+      <c r="I45" s="63"/>
+      <c r="J45" s="63"/>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B46" s="63" t="s">
+        <v>2</v>
+      </c>
+      <c r="C46" s="63"/>
+      <c r="D46" s="63"/>
+      <c r="E46" s="63"/>
+      <c r="F46" s="63"/>
+      <c r="G46" s="63"/>
+      <c r="H46" s="63"/>
+      <c r="I46" s="63"/>
+      <c r="J46" s="63"/>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B47" s="63"/>
+      <c r="C47" s="63"/>
+      <c r="D47" s="63"/>
+      <c r="E47" s="63"/>
+      <c r="F47" s="63"/>
+      <c r="G47" s="63"/>
+      <c r="H47" s="63"/>
+      <c r="I47" s="63"/>
+      <c r="J47" s="63"/>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B48" s="63" t="s">
+        <v>178</v>
+      </c>
+      <c r="C48" s="63"/>
+      <c r="D48" s="63"/>
+      <c r="E48" s="63"/>
+      <c r="F48" s="63"/>
+      <c r="G48" s="63" t="s">
+        <v>176</v>
+      </c>
+      <c r="H48" s="63"/>
+      <c r="I48" s="63"/>
+      <c r="J48" s="63"/>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B49" s="63"/>
+      <c r="C49" s="63"/>
+      <c r="D49" s="63"/>
+      <c r="E49" s="63"/>
+      <c r="F49" s="63"/>
+      <c r="G49" s="63"/>
+      <c r="H49" s="63"/>
+      <c r="I49" s="63"/>
+      <c r="J49" s="63"/>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B50" s="63" t="s">
+        <v>178</v>
+      </c>
+      <c r="C50" s="63"/>
+      <c r="D50" s="63"/>
+      <c r="E50" s="63"/>
+      <c r="F50" s="63"/>
+      <c r="G50" s="63" t="s">
+        <v>176</v>
+      </c>
+      <c r="H50" s="63"/>
+      <c r="I50" s="63"/>
+      <c r="J50" s="63"/>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B51" s="63"/>
+      <c r="C51" s="63"/>
+      <c r="D51" s="63"/>
+      <c r="E51" s="63"/>
+      <c r="F51" s="63"/>
+      <c r="G51" s="63"/>
+      <c r="H51" s="63"/>
+      <c r="I51" s="63"/>
+      <c r="J51" s="63"/>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B52" s="63" t="s">
+        <v>178</v>
+      </c>
+      <c r="C52" s="63"/>
+      <c r="D52" s="63"/>
+      <c r="E52" s="63"/>
+      <c r="F52" s="63"/>
+      <c r="G52" s="63" t="s">
+        <v>176</v>
+      </c>
+      <c r="H52" s="63"/>
+      <c r="I52" s="63"/>
+      <c r="J52" s="63"/>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B53" s="63"/>
+      <c r="C53" s="63"/>
+      <c r="D53" s="63"/>
+      <c r="E53" s="63"/>
+      <c r="F53" s="63"/>
+      <c r="G53" s="63"/>
+      <c r="H53" s="63"/>
+      <c r="I53" s="63"/>
+      <c r="J53" s="63"/>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B54" s="63" t="s">
+        <v>178</v>
+      </c>
+      <c r="C54" s="63"/>
+      <c r="D54" s="63"/>
+      <c r="E54" s="63"/>
+      <c r="F54" s="63"/>
+      <c r="G54" s="63" t="s">
+        <v>176</v>
+      </c>
+      <c r="H54" s="63"/>
+      <c r="I54" s="63"/>
+      <c r="J54" s="63"/>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B55" s="63"/>
+      <c r="C55" s="63"/>
+      <c r="D55" s="63"/>
+      <c r="E55" s="63"/>
+      <c r="F55" s="63"/>
+      <c r="G55" s="63"/>
+      <c r="H55" s="63"/>
+      <c r="I55" s="63"/>
+      <c r="J55" s="63"/>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B56" s="63" t="s">
+        <v>178</v>
+      </c>
+      <c r="C56" s="63"/>
+      <c r="D56" s="63"/>
+      <c r="E56" s="63"/>
+      <c r="F56" s="63"/>
+      <c r="G56" s="63" t="s">
+        <v>176</v>
+      </c>
+      <c r="H56" s="63"/>
+      <c r="I56" s="63"/>
+      <c r="J56" s="63"/>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B57" s="63"/>
+      <c r="C57" s="63"/>
+      <c r="D57" s="63"/>
+      <c r="E57" s="63"/>
+      <c r="F57" s="63"/>
+      <c r="G57" s="63"/>
+      <c r="H57" s="63"/>
+      <c r="I57" s="63"/>
+      <c r="J57" s="63"/>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B58" s="63" t="s">
+        <v>177</v>
+      </c>
+      <c r="C58" s="63"/>
+      <c r="D58" s="63"/>
+      <c r="E58" s="63"/>
+      <c r="F58" s="63"/>
+      <c r="G58" s="63" t="s">
+        <v>176</v>
+      </c>
+      <c r="H58" s="63"/>
+      <c r="I58" s="63"/>
+      <c r="J58" s="63"/>
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B59" s="63"/>
+      <c r="C59" s="63"/>
+      <c r="D59" s="63"/>
+      <c r="E59" s="63"/>
+      <c r="F59" s="63"/>
+      <c r="G59" s="63"/>
+      <c r="H59" s="63"/>
+      <c r="I59" s="63"/>
+      <c r="J59" s="63"/>
+    </row>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B60" s="63" t="s">
+        <v>177</v>
+      </c>
+      <c r="C60" s="63"/>
+      <c r="D60" s="63"/>
+      <c r="E60" s="63"/>
+      <c r="F60" s="63"/>
+      <c r="G60" s="63" t="s">
+        <v>176</v>
+      </c>
+      <c r="H60" s="63"/>
+      <c r="I60" s="63"/>
+      <c r="J60" s="63"/>
+    </row>
+    <row r="61" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B61" s="63"/>
+      <c r="C61" s="63"/>
+      <c r="D61" s="63"/>
+      <c r="E61" s="63"/>
+      <c r="F61" s="63"/>
+      <c r="G61" s="63"/>
+      <c r="H61" s="63"/>
+      <c r="I61" s="63"/>
+      <c r="J61" s="63"/>
+    </row>
+  </sheetData>
+  <mergeCells count="116">
+    <mergeCell ref="B61:F61"/>
+    <mergeCell ref="G61:J61"/>
+    <mergeCell ref="B50:F50"/>
+    <mergeCell ref="G50:J50"/>
+    <mergeCell ref="B51:F51"/>
+    <mergeCell ref="G51:J51"/>
+    <mergeCell ref="B52:F52"/>
+    <mergeCell ref="G52:J52"/>
+    <mergeCell ref="B53:F53"/>
+    <mergeCell ref="G53:J53"/>
+    <mergeCell ref="B54:F54"/>
+    <mergeCell ref="G54:J54"/>
+    <mergeCell ref="B55:F55"/>
+    <mergeCell ref="G55:J55"/>
+    <mergeCell ref="B56:F56"/>
+    <mergeCell ref="G56:J56"/>
+    <mergeCell ref="B57:F57"/>
+    <mergeCell ref="G57:J57"/>
+    <mergeCell ref="B58:F58"/>
+    <mergeCell ref="G58:J58"/>
+    <mergeCell ref="B59:F59"/>
+    <mergeCell ref="G59:J59"/>
+    <mergeCell ref="B60:F60"/>
+    <mergeCell ref="G60:J60"/>
+    <mergeCell ref="B48:F48"/>
+    <mergeCell ref="G48:J48"/>
+    <mergeCell ref="B38:J38"/>
+    <mergeCell ref="B43:J43"/>
+    <mergeCell ref="B49:F49"/>
+    <mergeCell ref="G49:J49"/>
+    <mergeCell ref="B45:F45"/>
+    <mergeCell ref="G45:J45"/>
+    <mergeCell ref="B46:F46"/>
+    <mergeCell ref="G46:J46"/>
+    <mergeCell ref="B39:F39"/>
+    <mergeCell ref="G39:J39"/>
+    <mergeCell ref="B40:F40"/>
+    <mergeCell ref="G40:J40"/>
+    <mergeCell ref="B41:F41"/>
+    <mergeCell ref="G41:J41"/>
+    <mergeCell ref="B47:F47"/>
+    <mergeCell ref="G47:J47"/>
+    <mergeCell ref="B42:F42"/>
+    <mergeCell ref="G42:J42"/>
+    <mergeCell ref="B44:F44"/>
+    <mergeCell ref="G44:J44"/>
+    <mergeCell ref="B36:F36"/>
+    <mergeCell ref="G36:J36"/>
+    <mergeCell ref="B37:F37"/>
+    <mergeCell ref="G37:J37"/>
+    <mergeCell ref="B33:F33"/>
+    <mergeCell ref="G33:J33"/>
+    <mergeCell ref="B34:F34"/>
+    <mergeCell ref="G34:J34"/>
+    <mergeCell ref="B35:F35"/>
+    <mergeCell ref="G35:J35"/>
+    <mergeCell ref="B32:F32"/>
+    <mergeCell ref="G32:J32"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="G27:J27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="G28:J28"/>
+    <mergeCell ref="B29:F29"/>
+    <mergeCell ref="G29:J29"/>
+    <mergeCell ref="G21:J21"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="B30:F30"/>
+    <mergeCell ref="G30:J30"/>
+    <mergeCell ref="B31:F31"/>
+    <mergeCell ref="G31:J31"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="G24:J24"/>
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="G25:J25"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="G26:J26"/>
+    <mergeCell ref="B17:J17"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="G18:J18"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="G19:J19"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="G20:J20"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="G16:J16"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="G15:J15"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="G9:J9"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="B6:J6"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:J4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F29B4141-5211-48A3-867B-9FE54A34B29D}">
+  <dimension ref="A1:J9"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6" style="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="25.7109375" style="19" customWidth="1"/>
+    <col min="8" max="8" width="28.85546875" style="18" customWidth="1"/>
+    <col min="9" max="16384" width="8.85546875" style="18"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="64" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1" s="65" t="s">
+        <v>243</v>
+      </c>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="67" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="75" x14ac:dyDescent="0.3">
+      <c r="A2" s="64"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="30" t="s">
+        <v>201</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>200</v>
+      </c>
+      <c r="E2" s="30" t="s">
+        <v>199</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>183</v>
+      </c>
+      <c r="G2" s="30" t="s">
+        <v>180</v>
+      </c>
+      <c r="H2" s="67"/>
+      <c r="J2" s="19"/>
+    </row>
+    <row r="3" spans="1:10" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="34">
+        <v>1</v>
+      </c>
+      <c r="B3" s="34" t="s">
+        <v>231</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>244</v>
+      </c>
+      <c r="D3" s="38" t="s">
+        <v>244</v>
+      </c>
+      <c r="E3" s="38" t="s">
+        <v>245</v>
+      </c>
+      <c r="F3" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="G3" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="H3" s="40" t="s">
+        <v>240</v>
+      </c>
+      <c r="J3" s="19"/>
+    </row>
+    <row r="4" spans="1:10" ht="112.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="34">
+        <v>2</v>
+      </c>
+      <c r="B4" s="34" t="s">
+        <v>232</v>
+      </c>
+      <c r="C4" s="38" t="s">
+        <v>244</v>
+      </c>
+      <c r="D4" s="38" t="s">
+        <v>244</v>
+      </c>
+      <c r="E4" s="38" t="s">
+        <v>244</v>
+      </c>
+      <c r="F4" s="38" t="s">
+        <v>245</v>
+      </c>
+      <c r="G4" s="38" t="s">
+        <v>246</v>
+      </c>
+      <c r="H4" s="40" t="s">
+        <v>241</v>
+      </c>
+      <c r="J4" s="19"/>
+    </row>
+    <row r="5" spans="1:10" ht="56.25" x14ac:dyDescent="0.3">
+      <c r="A5" s="34">
+        <v>3</v>
+      </c>
+      <c r="B5" s="34" t="s">
+        <v>233</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>244</v>
+      </c>
+      <c r="D5" s="38" t="s">
+        <v>244</v>
+      </c>
+      <c r="E5" s="38" t="s">
+        <v>244</v>
+      </c>
+      <c r="F5" s="38" t="s">
+        <v>244</v>
+      </c>
+      <c r="G5" s="38" t="s">
+        <v>245</v>
+      </c>
+      <c r="H5" s="40" t="s">
+        <v>242</v>
+      </c>
+      <c r="J5" s="39" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="56.25" x14ac:dyDescent="0.3">
+      <c r="A6" s="34">
+        <v>4</v>
+      </c>
+      <c r="B6" s="34" t="s">
+        <v>234</v>
+      </c>
+      <c r="C6" s="38" t="s">
+        <v>244</v>
+      </c>
+      <c r="D6" s="38" t="s">
+        <v>244</v>
+      </c>
+      <c r="E6" s="38" t="s">
+        <v>244</v>
+      </c>
+      <c r="F6" s="38" t="s">
+        <v>244</v>
+      </c>
+      <c r="G6" s="38" t="s">
+        <v>245</v>
+      </c>
+      <c r="H6" s="40" t="s">
+        <v>242</v>
+      </c>
+      <c r="J6" s="39" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="86.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="64" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="64"/>
+      <c r="C7" s="66" t="s">
+        <v>236</v>
+      </c>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="66"/>
+      <c r="J7" s="19"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="41"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="J8" s="19"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J9" s="19"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="H1:H2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EB454EC-62F9-4DA7-A4E3-E4CEA3DF6BCC}">
+  <dimension ref="A1:I54"/>
+  <sheetViews>
+    <sheetView topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6" style="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" style="20" customWidth="1"/>
+    <col min="3" max="3" width="31.7109375" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="54.5703125" style="19" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="17.42578125" style="19" customWidth="1"/>
+    <col min="8" max="8" width="24.7109375" style="19" customWidth="1"/>
+    <col min="9" max="9" width="28.7109375" style="19" customWidth="1"/>
+    <col min="10" max="16384" width="8.85546875" style="18"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="34" t="s">
+        <v>175</v>
+      </c>
+      <c r="D1" s="34" t="s">
+        <v>174</v>
+      </c>
+      <c r="E1" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+    </row>
+    <row r="2" spans="1:9" ht="93.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="23">
+        <v>1</v>
+      </c>
+      <c r="B2" s="68" t="s">
+        <v>201</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="32" t="str">
+        <f t="shared" ref="D2:D20" si="0">"- Kiểu: "&amp;F2&amp;CHAR(10)&amp;
+"- Sửa: "&amp;G2&amp;CHAR(10)&amp;
+"- Lấy dữ liệu: " &amp;H2&amp;CHAR(10)&amp;
+"- Ghi dữ liệu: "&amp;I2</f>
+        <v>- Kiểu: Textbox
+- Sửa: Không sửa
+- Lấy dữ liệu: Theo IDDataSC trong sheet DataSC
+- Ghi dữ liệu: Không</v>
+      </c>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="G2" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="H2" s="32" t="s">
+        <v>203</v>
+      </c>
+      <c r="I2" s="32" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="75" x14ac:dyDescent="0.3">
+      <c r="A3" s="23">
+        <v>2</v>
+      </c>
+      <c r="B3" s="69"/>
+      <c r="C3" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="32" t="str">
+        <f t="shared" si="0"/>
+        <v>- Kiểu: Textbox
+- Sửa: Không sửa
+- Lấy dữ liệu: Tương tự trên
+- Ghi dữ liệu: Không</v>
+      </c>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="G3" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="H3" s="32" t="s">
+        <v>204</v>
+      </c>
+      <c r="I3" s="32" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="75" x14ac:dyDescent="0.3">
+      <c r="A4" s="23">
+        <v>3</v>
+      </c>
+      <c r="B4" s="70"/>
+      <c r="C4" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="32" t="str">
+        <f t="shared" si="0"/>
+        <v>- Kiểu: Textbox
+- Sửa: Không sửa
+- Lấy dữ liệu: Tương tự trên
+- Ghi dữ liệu: Không</v>
+      </c>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="G4" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="H4" s="32" t="s">
+        <v>204</v>
+      </c>
+      <c r="I4" s="32" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="75" x14ac:dyDescent="0.3">
+      <c r="A5" s="23">
+        <v>4</v>
+      </c>
+      <c r="B5" s="71" t="s">
+        <v>200</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="32" t="str">
+        <f t="shared" si="0"/>
+        <v>- Kiểu: Textbox
+- Sửa: Không sửa
+- Lấy dữ liệu: Tương tự trên
+- Ghi dữ liệu: Không</v>
+      </c>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="G5" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="H5" s="32" t="s">
+        <v>204</v>
+      </c>
+      <c r="I5" s="32" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="75" x14ac:dyDescent="0.3">
+      <c r="A6" s="23">
+        <v>5</v>
+      </c>
+      <c r="B6" s="72"/>
+      <c r="C6" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="32" t="str">
+        <f t="shared" si="0"/>
+        <v>- Kiểu: Textbox
+- Sửa: Không sửa
+- Lấy dữ liệu: Tương tự trên
+- Ghi dữ liệu: Không</v>
+      </c>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="G6" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="H6" s="32" t="s">
+        <v>204</v>
+      </c>
+      <c r="I6" s="32" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="75" x14ac:dyDescent="0.3">
+      <c r="A7" s="23">
+        <v>6</v>
+      </c>
+      <c r="B7" s="72"/>
+      <c r="C7" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="32" t="str">
+        <f t="shared" si="0"/>
+        <v>- Kiểu: Textbox
+- Sửa: Không sửa
+- Lấy dữ liệu: Tương tự trên
+- Ghi dữ liệu: Không</v>
+      </c>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="G7" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="H7" s="32" t="s">
+        <v>204</v>
+      </c>
+      <c r="I7" s="32" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="75" x14ac:dyDescent="0.3">
+      <c r="A8" s="23">
+        <v>7</v>
+      </c>
+      <c r="B8" s="72"/>
+      <c r="C8" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="32" t="str">
+        <f t="shared" si="0"/>
+        <v>- Kiểu: Textbox
+- Sửa: Không sửa
+- Lấy dữ liệu: Tương tự trên
+- Ghi dữ liệu: Không</v>
+      </c>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="G8" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="H8" s="32" t="s">
+        <v>204</v>
+      </c>
+      <c r="I8" s="32" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="75" x14ac:dyDescent="0.3">
+      <c r="A9" s="23">
+        <v>8</v>
+      </c>
+      <c r="B9" s="72"/>
+      <c r="C9" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="32" t="str">
+        <f t="shared" si="0"/>
+        <v>- Kiểu: Textbox
+- Sửa: Không sửa
+- Lấy dữ liệu: Tương tự trên
+- Ghi dữ liệu: Không</v>
+      </c>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="G9" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="H9" s="32" t="s">
+        <v>204</v>
+      </c>
+      <c r="I9" s="32" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="75" x14ac:dyDescent="0.3">
+      <c r="A10" s="23">
+        <v>9</v>
+      </c>
+      <c r="B10" s="72"/>
+      <c r="C10" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="32" t="str">
+        <f t="shared" si="0"/>
+        <v>- Kiểu: Textbox
+- Sửa: Không sửa
+- Lấy dữ liệu: Tương tự trên
+- Ghi dữ liệu: Không</v>
+      </c>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="G10" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="H10" s="32" t="s">
+        <v>204</v>
+      </c>
+      <c r="I10" s="32" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="75" x14ac:dyDescent="0.3">
+      <c r="A11" s="23">
+        <v>10</v>
+      </c>
+      <c r="B11" s="72"/>
+      <c r="C11" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="D11" s="32" t="str">
+        <f t="shared" si="0"/>
+        <v>- Kiểu: Textbox
+- Sửa: Không sửa
+- Lấy dữ liệu: Tương tự trên
+- Ghi dữ liệu: Không</v>
+      </c>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="G11" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="H11" s="32" t="s">
+        <v>204</v>
+      </c>
+      <c r="I11" s="32" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="75" x14ac:dyDescent="0.3">
+      <c r="A12" s="23">
+        <v>11</v>
+      </c>
+      <c r="B12" s="72"/>
+      <c r="C12" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="32" t="str">
+        <f t="shared" si="0"/>
+        <v>- Kiểu: Textbox
+- Sửa: Không sửa
+- Lấy dữ liệu: Tương tự trên
+- Ghi dữ liệu: Không</v>
+      </c>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="G12" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="H12" s="32" t="s">
+        <v>204</v>
+      </c>
+      <c r="I12" s="32" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="75" x14ac:dyDescent="0.3">
+      <c r="A13" s="23">
+        <v>12</v>
+      </c>
+      <c r="B13" s="72"/>
+      <c r="C13" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="32" t="str">
+        <f t="shared" si="0"/>
+        <v>- Kiểu: Textbox
+- Sửa: Không sửa
+- Lấy dữ liệu: Tương tự trên
+- Ghi dữ liệu: Không</v>
+      </c>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="G13" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="H13" s="32" t="s">
+        <v>204</v>
+      </c>
+      <c r="I13" s="32" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="75" x14ac:dyDescent="0.3">
+      <c r="A14" s="23">
+        <v>13</v>
+      </c>
+      <c r="B14" s="73"/>
+      <c r="C14" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="32" t="str">
+        <f t="shared" si="0"/>
+        <v>- Kiểu: Textbox
+- Sửa: Không sửa
+- Lấy dữ liệu: Tương tự trên
+- Ghi dữ liệu: Không</v>
+      </c>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="G14" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="H14" s="32" t="s">
+        <v>204</v>
+      </c>
+      <c r="I14" s="32" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="93.75" x14ac:dyDescent="0.3">
+      <c r="A15" s="23">
+        <v>14</v>
+      </c>
+      <c r="B15" s="74" t="s">
+        <v>199</v>
+      </c>
+      <c r="C15" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="32" t="str">
+        <f t="shared" si="0"/>
+        <v>- Kiểu: Textbox
+- Sửa: Có
+- Lấy dữ liệu: Người dùng tự nhập (Initial value - Tình trạng thiết bị đơn vị báo/DataSC)
+- Ghi dữ liệu: Tình trang thiết bị khảo sát/DataSC</v>
+      </c>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="G15" s="32" t="s">
+        <v>205</v>
+      </c>
+      <c r="H15" s="32" t="s">
+        <v>211</v>
+      </c>
+      <c r="I15" s="32" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="75" x14ac:dyDescent="0.3">
+      <c r="A16" s="23">
+        <v>15</v>
+      </c>
+      <c r="B16" s="75"/>
+      <c r="C16" s="32" t="s">
+        <v>198</v>
+      </c>
+      <c r="D16" s="32" t="str">
+        <f t="shared" si="0"/>
+        <v>- Kiểu: Textbox
+- Sửa: Có
+- Lấy dữ liệu: Người dùng tự nhập
+- Ghi dữ liệu: Kết luận khảo sát/DataSC</v>
+      </c>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="G16" s="32" t="s">
+        <v>205</v>
+      </c>
+      <c r="H16" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="I16" s="32" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="75" x14ac:dyDescent="0.3">
+      <c r="A17" s="23">
+        <v>16</v>
+      </c>
+      <c r="B17" s="75"/>
+      <c r="C17" s="32" t="s">
+        <v>197</v>
+      </c>
+      <c r="D17" s="32" t="str">
+        <f t="shared" si="0"/>
+        <v>- Kiểu: Textbox
+- Sửa: Có
+- Lấy dữ liệu: Người dùng tự nhập
+- Ghi dữ liệu: Đề xuất phương án/DataSC</v>
+      </c>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="G17" s="32" t="s">
+        <v>205</v>
+      </c>
+      <c r="H17" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="I17" s="32" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="75" x14ac:dyDescent="0.3">
+      <c r="A18" s="23">
+        <v>17</v>
+      </c>
+      <c r="B18" s="75"/>
+      <c r="C18" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="32" t="str">
+        <f t="shared" si="0"/>
+        <v>- Kiểu: Textbox
+- Sửa: Có
+- Lấy dữ liệu: Người dùng tự nhập
+- Ghi dữ liệu: Ghi chú/DataSC</v>
+      </c>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="G18" s="32" t="s">
+        <v>205</v>
+      </c>
+      <c r="H18" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="I18" s="32" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="93.75" x14ac:dyDescent="0.3">
+      <c r="A19" s="23">
+        <v>18</v>
+      </c>
+      <c r="B19" s="75"/>
+      <c r="C19" s="32" t="s">
+        <v>196</v>
+      </c>
+      <c r="D19" s="35" t="str">
+        <f t="shared" si="0"/>
+        <v>- Kiểu: Textbox
+- Sửa: Có
+- Lấy dữ liệu: Người dùng tự nhập (Initial value -  Đại diện BV 1/DSUserDV)
+- Ghi dữ liệu:  Đại diện BV 1/DSUserDV</v>
+      </c>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="G19" s="32" t="s">
+        <v>205</v>
+      </c>
+      <c r="H19" s="32" t="str">
+        <f>"Người dùng tự nhập (Initial value - "&amp;I19&amp;")"</f>
+        <v>Người dùng tự nhập (Initial value -  Đại diện BV 1/DSUserDV)</v>
+      </c>
+      <c r="I19" s="35" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="93.75" x14ac:dyDescent="0.3">
+      <c r="A20" s="23">
+        <v>19</v>
+      </c>
+      <c r="B20" s="75"/>
+      <c r="C20" s="32" t="s">
+        <v>187</v>
+      </c>
+      <c r="D20" s="35" t="str">
+        <f t="shared" si="0"/>
+        <v>- Kiểu: Textbox
+- Sửa: Có
+- Lấy dữ liệu: Người dùng tự nhập (Initial value - Chức vụ DD BV 1/DSUserDV)
+- Ghi dữ liệu: Chức vụ DD BV 1/DSUserDV</v>
+      </c>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="G20" s="32" t="s">
+        <v>205</v>
+      </c>
+      <c r="H20" s="32" t="str">
+        <f>"Người dùng tự nhập (Initial value - "&amp;I20&amp;")"</f>
+        <v>Người dùng tự nhập (Initial value - Chức vụ DD BV 1/DSUserDV)</v>
+      </c>
+      <c r="I20" s="35" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="93.75" x14ac:dyDescent="0.3">
+      <c r="A21" s="23">
+        <v>20</v>
+      </c>
+      <c r="B21" s="75"/>
+      <c r="C21" s="32" t="s">
+        <v>195</v>
+      </c>
+      <c r="D21" s="36" t="str">
+        <f t="shared" ref="D21:D40" si="1">"- Kiểu: "&amp;F21&amp;CHAR(10)&amp;
+"- Sửa: "&amp;G21&amp;CHAR(10)&amp;
+"- Lấy dữ liệu: " &amp;H21&amp;CHAR(10)&amp;
+"- Ghi dữ liệu: "&amp;I21</f>
+        <v>- Kiểu: Textbox
+- Sửa: Có
+- Lấy dữ liệu: Người dùng tự nhập (Initial value -  Đại diện BV 2/DSUserDV)
+- Ghi dữ liệu:  Đại diện BV 2/DSUserDV</v>
+      </c>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="G21" s="32" t="s">
+        <v>205</v>
+      </c>
+      <c r="H21" s="32" t="str">
+        <f t="shared" ref="H21:H54" si="2">"Người dùng tự nhập (Initial value - "&amp;I21&amp;")"</f>
+        <v>Người dùng tự nhập (Initial value -  Đại diện BV 2/DSUserDV)</v>
+      </c>
+      <c r="I21" s="36" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="93.75" x14ac:dyDescent="0.3">
+      <c r="A22" s="23">
+        <v>21</v>
+      </c>
+      <c r="B22" s="75"/>
+      <c r="C22" s="32" t="s">
+        <v>185</v>
+      </c>
+      <c r="D22" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v>- Kiểu: Textbox
+- Sửa: Có
+- Lấy dữ liệu: Người dùng tự nhập (Initial value - Chức vụ DD BV 2/DSUserDV)
+- Ghi dữ liệu: Chức vụ DD BV 2/DSUserDV</v>
+      </c>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="G22" s="32" t="s">
+        <v>205</v>
+      </c>
+      <c r="H22" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v>Người dùng tự nhập (Initial value - Chức vụ DD BV 2/DSUserDV)</v>
+      </c>
+      <c r="I22" s="36" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="93.75" x14ac:dyDescent="0.3">
+      <c r="A23" s="23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="75"/>
+      <c r="C23" s="32" t="s">
+        <v>194</v>
+      </c>
+      <c r="D23" s="37" t="str">
+        <f t="shared" si="1"/>
+        <v>- Kiểu: Textbox
+- Sửa: Có
+- Lấy dữ liệu: Người dùng tự nhập (Initial value -  Đại diện BV 3/DSUserDV)
+- Ghi dữ liệu:  Đại diện BV 3/DSUserDV</v>
+      </c>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="G23" s="32" t="s">
+        <v>205</v>
+      </c>
+      <c r="H23" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v>Người dùng tự nhập (Initial value -  Đại diện BV 3/DSUserDV)</v>
+      </c>
+      <c r="I23" s="37" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="93.75" x14ac:dyDescent="0.3">
+      <c r="A24" s="23">
+        <v>23</v>
+      </c>
+      <c r="B24" s="75"/>
+      <c r="C24" s="32" t="s">
+        <v>193</v>
+      </c>
+      <c r="D24" s="37" t="str">
+        <f t="shared" si="1"/>
+        <v>- Kiểu: Textbox
+- Sửa: Có
+- Lấy dữ liệu: Người dùng tự nhập (Initial value - Chức vụ DD BV 3/DSUserDV)
+- Ghi dữ liệu: Chức vụ DD BV 3/DSUserDV</v>
+      </c>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="G24" s="32" t="s">
+        <v>205</v>
+      </c>
+      <c r="H24" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v>Người dùng tự nhập (Initial value - Chức vụ DD BV 3/DSUserDV)</v>
+      </c>
+      <c r="I24" s="37" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="93.75" x14ac:dyDescent="0.3">
+      <c r="A25" s="23">
+        <v>24</v>
+      </c>
+      <c r="B25" s="75"/>
+      <c r="C25" s="32" t="s">
+        <v>192</v>
+      </c>
+      <c r="D25" s="35" t="str">
+        <f t="shared" si="1"/>
+        <v>- Kiểu: Textbox
+- Sửa: Có
+- Lấy dữ liệu: Người dùng tự nhập (Initial value -  Đại diện BV 4/DSUserDV)
+- Ghi dữ liệu:  Đại diện BV 4/DSUserDV</v>
+      </c>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="G25" s="32" t="s">
+        <v>205</v>
+      </c>
+      <c r="H25" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v>Người dùng tự nhập (Initial value -  Đại diện BV 4/DSUserDV)</v>
+      </c>
+      <c r="I25" s="35" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="93.75" x14ac:dyDescent="0.3">
+      <c r="A26" s="23">
+        <v>25</v>
+      </c>
+      <c r="B26" s="75"/>
+      <c r="C26" s="32" t="s">
+        <v>191</v>
+      </c>
+      <c r="D26" s="35" t="str">
+        <f t="shared" si="1"/>
+        <v>- Kiểu: Textbox
+- Sửa: Có
+- Lấy dữ liệu: Người dùng tự nhập (Initial value - Chức vụ DD BV 4/DSUserDV)
+- Ghi dữ liệu: Chức vụ DD BV 4/DSUserDV</v>
+      </c>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="G26" s="32" t="s">
+        <v>205</v>
+      </c>
+      <c r="H26" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v>Người dùng tự nhập (Initial value - Chức vụ DD BV 4/DSUserDV)</v>
+      </c>
+      <c r="I26" s="35" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="93.75" x14ac:dyDescent="0.3">
+      <c r="A27" s="23">
+        <v>26</v>
+      </c>
+      <c r="B27" s="75"/>
+      <c r="C27" s="32" t="s">
+        <v>190</v>
+      </c>
+      <c r="D27" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v>- Kiểu: Textbox
+- Sửa: Có
+- Lấy dữ liệu: Người dùng tự nhập (Initial value -  Đại diện BV 5/DSUserDV)
+- Ghi dữ liệu:  Đại diện BV 5/DSUserDV</v>
+      </c>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="G27" s="32" t="s">
+        <v>205</v>
+      </c>
+      <c r="H27" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v>Người dùng tự nhập (Initial value -  Đại diện BV 5/DSUserDV)</v>
+      </c>
+      <c r="I27" s="36" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="93.75" x14ac:dyDescent="0.3">
+      <c r="A28" s="23">
+        <v>27</v>
+      </c>
+      <c r="B28" s="75"/>
+      <c r="C28" s="32" t="s">
+        <v>189</v>
+      </c>
+      <c r="D28" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v>- Kiểu: Textbox
+- Sửa: Có
+- Lấy dữ liệu: Người dùng tự nhập (Initial value - Chức vụ DD BV 5/DSUserDV)
+- Ghi dữ liệu: Chức vụ DD BV 5/DSUserDV</v>
+      </c>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="G28" s="32" t="s">
+        <v>205</v>
+      </c>
+      <c r="H28" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v>Người dùng tự nhập (Initial value - Chức vụ DD BV 5/DSUserDV)</v>
+      </c>
+      <c r="I28" s="36" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="112.5" x14ac:dyDescent="0.3">
+      <c r="A29" s="23">
+        <v>28</v>
+      </c>
+      <c r="B29" s="75"/>
+      <c r="C29" s="32" t="s">
+        <v>188</v>
+      </c>
+      <c r="D29" s="37" t="str">
+        <f t="shared" si="1"/>
+        <v>- Kiểu: Textbox
+- Sửa: Có
+- Lấy dữ liệu: Người dùng tự nhập (Initial value - Đại diện ĐV Báo sửa 1/DSUserDV)
+- Ghi dữ liệu: Đại diện ĐV Báo sửa 1/DSUserDV</v>
+      </c>
+      <c r="E29" s="32"/>
+      <c r="F29" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="G29" s="32" t="s">
+        <v>205</v>
+      </c>
+      <c r="H29" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v>Người dùng tự nhập (Initial value - Đại diện ĐV Báo sửa 1/DSUserDV)</v>
+      </c>
+      <c r="I29" s="37" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="112.5" x14ac:dyDescent="0.3">
+      <c r="A30" s="23">
+        <v>29</v>
+      </c>
+      <c r="B30" s="75"/>
+      <c r="C30" s="32" t="s">
+        <v>187</v>
+      </c>
+      <c r="D30" s="37" t="str">
+        <f t="shared" si="1"/>
+        <v>- Kiểu: Textbox
+- Sửa: Có
+- Lấy dữ liệu: Người dùng tự nhập (Initial value - Chức vụ DD ĐV Báo sửa 1/DSUserDV)
+- Ghi dữ liệu: Chức vụ DD ĐV Báo sửa 1/DSUserDV</v>
+      </c>
+      <c r="E30" s="32"/>
+      <c r="F30" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="G30" s="32" t="s">
+        <v>205</v>
+      </c>
+      <c r="H30" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v>Người dùng tự nhập (Initial value - Chức vụ DD ĐV Báo sửa 1/DSUserDV)</v>
+      </c>
+      <c r="I30" s="37" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="112.5" x14ac:dyDescent="0.3">
+      <c r="A31" s="23">
+        <v>30</v>
+      </c>
+      <c r="B31" s="75"/>
+      <c r="C31" s="32" t="s">
+        <v>186</v>
+      </c>
+      <c r="D31" s="35" t="str">
+        <f t="shared" si="1"/>
+        <v>- Kiểu: Textbox
+- Sửa: Có
+- Lấy dữ liệu: Người dùng tự nhập (Initial value - Đại diện ĐV Báo sửa 2/DSUserDV)
+- Ghi dữ liệu: Đại diện ĐV Báo sửa 2/DSUserDV</v>
+      </c>
+      <c r="E31" s="32"/>
+      <c r="F31" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="G31" s="32" t="s">
+        <v>205</v>
+      </c>
+      <c r="H31" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v>Người dùng tự nhập (Initial value - Đại diện ĐV Báo sửa 2/DSUserDV)</v>
+      </c>
+      <c r="I31" s="35" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="112.5" x14ac:dyDescent="0.3">
+      <c r="A32" s="23">
+        <v>31</v>
+      </c>
+      <c r="B32" s="75"/>
+      <c r="C32" s="32" t="s">
+        <v>185</v>
+      </c>
+      <c r="D32" s="35" t="str">
+        <f t="shared" si="1"/>
+        <v>- Kiểu: Textbox
+- Sửa: Có
+- Lấy dữ liệu: Người dùng tự nhập (Initial value - Chức vụ DD ĐV Báo sửa 2/DSUserDV)
+- Ghi dữ liệu: Chức vụ DD ĐV Báo sửa 2/DSUserDV</v>
+      </c>
+      <c r="E32" s="32"/>
+      <c r="F32" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="G32" s="32" t="s">
+        <v>205</v>
+      </c>
+      <c r="H32" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v>Người dùng tự nhập (Initial value - Chức vụ DD ĐV Báo sửa 2/DSUserDV)</v>
+      </c>
+      <c r="I32" s="35" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="93.75" x14ac:dyDescent="0.3">
+      <c r="A33" s="23">
+        <v>32</v>
+      </c>
+      <c r="B33" s="75"/>
+      <c r="C33" s="32" t="s">
+        <v>184</v>
+      </c>
+      <c r="D33" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v>- Kiểu: Textbox
+- Sửa: Có
+- Lấy dữ liệu: Người dùng tự nhập (Initial value - Quyết định tổ khảo sát/DSUserDV)
+- Ghi dữ liệu: Quyết định tổ khảo sát/DSUserDV</v>
+      </c>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="G33" s="32" t="s">
+        <v>205</v>
+      </c>
+      <c r="H33" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v>Người dùng tự nhập (Initial value - Quyết định tổ khảo sát/DSUserDV)</v>
+      </c>
+      <c r="I33" s="32" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="75" x14ac:dyDescent="0.3">
+      <c r="A34" s="23">
+        <v>33</v>
+      </c>
+      <c r="B34" s="76"/>
+      <c r="C34" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="D34" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v>- Kiểu: Textbox
+- Sửa: Không sửa
+- Lấy dữ liệu: Lấy ngày hiện tại
+- Ghi dữ liệu: Ngày khảo sát/DataSC</v>
+      </c>
+      <c r="E34" s="32"/>
+      <c r="F34" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="G34" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="H34" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="I34" s="32" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="75" x14ac:dyDescent="0.3">
+      <c r="A35" s="23">
+        <v>34</v>
+      </c>
+      <c r="B35" s="71" t="s">
+        <v>183</v>
+      </c>
+      <c r="C35" s="32" t="s">
+        <v>182</v>
+      </c>
+      <c r="D35" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v>- Kiểu: Textbox
+- Sửa: Có
+- Lấy dữ liệu: Người dùng tự nhập
+- Ghi dữ liệu: Nội dung đề nghi/DataSC</v>
+      </c>
+      <c r="E35" s="32"/>
+      <c r="F35" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="G35" s="32" t="s">
+        <v>205</v>
+      </c>
+      <c r="H35" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="I35" s="32" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="75" x14ac:dyDescent="0.3">
+      <c r="A36" s="23">
+        <v>35</v>
+      </c>
+      <c r="B36" s="72"/>
+      <c r="C36" s="32" t="s">
+        <v>181</v>
+      </c>
+      <c r="D36" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v>- Kiểu: Textbox
+- Sửa: Không sửa
+- Lấy dữ liệu: Lấy ngày hiện tại
+- Ghi dữ liệu: Ngày đề nghi/DataSC</v>
+      </c>
+      <c r="E36" s="32"/>
+      <c r="F36" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="G36" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="H36" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="I36" s="32" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="75" x14ac:dyDescent="0.3">
+      <c r="A37" s="23">
+        <v>36</v>
+      </c>
+      <c r="B37" s="73"/>
+      <c r="C37" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="D37" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v>- Kiểu: Textbox
+- Sửa: Có
+- Lấy dữ liệu: Người dùng tự nhập
+- Ghi dữ liệu: Ghi chú/DataSC</v>
+      </c>
+      <c r="E37" s="32"/>
+      <c r="F37" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="G37" s="32" t="s">
+        <v>205</v>
+      </c>
+      <c r="H37" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="I37" s="32" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="93.75" x14ac:dyDescent="0.3">
+      <c r="A38" s="23">
+        <v>37</v>
+      </c>
+      <c r="B38" s="68" t="s">
+        <v>180</v>
+      </c>
+      <c r="C38" s="32" t="s">
+        <v>228</v>
+      </c>
+      <c r="D38" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v>- Kiểu: Textbox
+- Sửa: Có
+- Lấy dữ liệu: Người dùng tự nhập
+- Ghi dữ liệu: Tình trạng thiết bị bàn giao/DataSC</v>
+      </c>
+      <c r="E38" s="32"/>
+      <c r="F38" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="G38" s="32" t="s">
+        <v>205</v>
+      </c>
+      <c r="H38" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="I38" s="32" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="75" x14ac:dyDescent="0.3">
+      <c r="A39" s="23">
+        <v>38</v>
+      </c>
+      <c r="B39" s="69"/>
+      <c r="C39" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="D39" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v>- Kiểu: Textbox
+- Sửa: Không sửa
+- Lấy dữ liệu: Lấy ngày hiện tại
+- Ghi dữ liệu: Ngày bàn giao/DataSC</v>
+      </c>
+      <c r="E39" s="32"/>
+      <c r="F39" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="G39" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="H39" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="I39" s="32" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="75" x14ac:dyDescent="0.3">
+      <c r="A40" s="23">
+        <v>39</v>
+      </c>
+      <c r="B40" s="69"/>
+      <c r="C40" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="D40" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v>- Kiểu: Textbox
+- Sửa: Có
+- Lấy dữ liệu: Người dùng tự nhập
+- Ghi dữ liệu: Ghi chú/DataSC</v>
+      </c>
+      <c r="E40" s="32"/>
+      <c r="F40" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="G40" s="32" t="s">
+        <v>205</v>
+      </c>
+      <c r="H40" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="I40" s="32" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="93.75" x14ac:dyDescent="0.3">
+      <c r="A41" s="23">
+        <v>40</v>
+      </c>
+      <c r="B41" s="69"/>
+      <c r="C41" s="32" t="s">
+        <v>196</v>
+      </c>
+      <c r="D41" s="35" t="str">
+        <f>"- Kiểu: "&amp;F41&amp;CHAR(10)&amp;
+"- Sửa: "&amp;G41&amp;CHAR(10)&amp;
+"- Lấy dữ liệu: " &amp;H41&amp;CHAR(10)&amp;
+"- Ghi dữ liệu: "&amp;I41</f>
+        <v>- Kiểu: Textbox
+- Sửa: Có
+- Lấy dữ liệu: Người dùng tự nhập (Initial value -  Đại diện BV 1/DSUserDV)
+- Ghi dữ liệu:  Đại diện BV 1/DSUserDV</v>
+      </c>
+      <c r="E41" s="32"/>
+      <c r="F41" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="G41" s="32" t="s">
+        <v>205</v>
+      </c>
+      <c r="H41" s="32" t="str">
+        <f>"Người dùng tự nhập (Initial value - "&amp;I41&amp;")"</f>
+        <v>Người dùng tự nhập (Initial value -  Đại diện BV 1/DSUserDV)</v>
+      </c>
+      <c r="I41" s="35" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="93.75" x14ac:dyDescent="0.3">
+      <c r="A42" s="23">
+        <v>41</v>
+      </c>
+      <c r="B42" s="69"/>
+      <c r="C42" s="32" t="s">
+        <v>187</v>
+      </c>
+      <c r="D42" s="35" t="str">
+        <f>"- Kiểu: "&amp;F42&amp;CHAR(10)&amp;
+"- Sửa: "&amp;G42&amp;CHAR(10)&amp;
+"- Lấy dữ liệu: " &amp;H42&amp;CHAR(10)&amp;
+"- Ghi dữ liệu: "&amp;I42</f>
+        <v>- Kiểu: Textbox
+- Sửa: Có
+- Lấy dữ liệu: Người dùng tự nhập (Initial value - Chức vụ DD BV 1/DSUserDV)
+- Ghi dữ liệu: Chức vụ DD BV 1/DSUserDV</v>
+      </c>
+      <c r="E42" s="32"/>
+      <c r="F42" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="G42" s="32" t="s">
+        <v>205</v>
+      </c>
+      <c r="H42" s="32" t="str">
+        <f>"Người dùng tự nhập (Initial value - "&amp;I42&amp;")"</f>
+        <v>Người dùng tự nhập (Initial value - Chức vụ DD BV 1/DSUserDV)</v>
+      </c>
+      <c r="I42" s="35" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="93.75" x14ac:dyDescent="0.3">
+      <c r="A43" s="23">
+        <v>42</v>
+      </c>
+      <c r="B43" s="69"/>
+      <c r="C43" s="32" t="s">
+        <v>195</v>
+      </c>
+      <c r="D43" s="36" t="str">
+        <f t="shared" ref="D43:D54" si="3">"- Kiểu: "&amp;F43&amp;CHAR(10)&amp;
+"- Sửa: "&amp;G43&amp;CHAR(10)&amp;
+"- Lấy dữ liệu: " &amp;H43&amp;CHAR(10)&amp;
+"- Ghi dữ liệu: "&amp;I43</f>
+        <v>- Kiểu: Textbox
+- Sửa: Có
+- Lấy dữ liệu: Người dùng tự nhập (Initial value -  Đại diện BV 2/DSUserDV)
+- Ghi dữ liệu:  Đại diện BV 2/DSUserDV</v>
+      </c>
+      <c r="E43" s="32"/>
+      <c r="F43" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="G43" s="32" t="s">
+        <v>205</v>
+      </c>
+      <c r="H43" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v>Người dùng tự nhập (Initial value -  Đại diện BV 2/DSUserDV)</v>
+      </c>
+      <c r="I43" s="36" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="93.75" x14ac:dyDescent="0.3">
+      <c r="A44" s="23">
+        <v>43</v>
+      </c>
+      <c r="B44" s="69"/>
+      <c r="C44" s="32" t="s">
+        <v>185</v>
+      </c>
+      <c r="D44" s="36" t="str">
+        <f t="shared" si="3"/>
+        <v>- Kiểu: Textbox
+- Sửa: Có
+- Lấy dữ liệu: Người dùng tự nhập (Initial value - Chức vụ DD BV 2/DSUserDV)
+- Ghi dữ liệu: Chức vụ DD BV 2/DSUserDV</v>
+      </c>
+      <c r="E44" s="32"/>
+      <c r="F44" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="G44" s="32" t="s">
+        <v>205</v>
+      </c>
+      <c r="H44" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v>Người dùng tự nhập (Initial value - Chức vụ DD BV 2/DSUserDV)</v>
+      </c>
+      <c r="I44" s="36" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="93.75" x14ac:dyDescent="0.3">
+      <c r="A45" s="23">
+        <v>44</v>
+      </c>
+      <c r="B45" s="69"/>
+      <c r="C45" s="32" t="s">
+        <v>194</v>
+      </c>
+      <c r="D45" s="37" t="str">
+        <f t="shared" si="3"/>
+        <v>- Kiểu: Textbox
+- Sửa: Có
+- Lấy dữ liệu: Người dùng tự nhập (Initial value -  Đại diện BV 3/DSUserDV)
+- Ghi dữ liệu:  Đại diện BV 3/DSUserDV</v>
+      </c>
+      <c r="E45" s="32"/>
+      <c r="F45" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="G45" s="32" t="s">
+        <v>205</v>
+      </c>
+      <c r="H45" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v>Người dùng tự nhập (Initial value -  Đại diện BV 3/DSUserDV)</v>
+      </c>
+      <c r="I45" s="37" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="93.75" x14ac:dyDescent="0.3">
+      <c r="A46" s="23">
+        <v>45</v>
+      </c>
+      <c r="B46" s="69"/>
+      <c r="C46" s="32" t="s">
+        <v>193</v>
+      </c>
+      <c r="D46" s="37" t="str">
+        <f t="shared" si="3"/>
+        <v>- Kiểu: Textbox
+- Sửa: Có
+- Lấy dữ liệu: Người dùng tự nhập (Initial value - Chức vụ DD BV 3/DSUserDV)
+- Ghi dữ liệu: Chức vụ DD BV 3/DSUserDV</v>
+      </c>
+      <c r="E46" s="32"/>
+      <c r="F46" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="G46" s="32" t="s">
+        <v>205</v>
+      </c>
+      <c r="H46" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v>Người dùng tự nhập (Initial value - Chức vụ DD BV 3/DSUserDV)</v>
+      </c>
+      <c r="I46" s="37" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="93.75" x14ac:dyDescent="0.3">
+      <c r="A47" s="23">
+        <v>46</v>
+      </c>
+      <c r="B47" s="69"/>
+      <c r="C47" s="32" t="s">
+        <v>192</v>
+      </c>
+      <c r="D47" s="35" t="str">
+        <f t="shared" si="3"/>
+        <v>- Kiểu: Textbox
+- Sửa: Có
+- Lấy dữ liệu: Người dùng tự nhập (Initial value -  Đại diện BV 4/DSUserDV)
+- Ghi dữ liệu:  Đại diện BV 4/DSUserDV</v>
+      </c>
+      <c r="E47" s="32"/>
+      <c r="F47" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="G47" s="32" t="s">
+        <v>205</v>
+      </c>
+      <c r="H47" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v>Người dùng tự nhập (Initial value -  Đại diện BV 4/DSUserDV)</v>
+      </c>
+      <c r="I47" s="35" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="93.75" x14ac:dyDescent="0.3">
+      <c r="A48" s="23">
+        <v>47</v>
+      </c>
+      <c r="B48" s="69"/>
+      <c r="C48" s="32" t="s">
+        <v>191</v>
+      </c>
+      <c r="D48" s="35" t="str">
+        <f t="shared" si="3"/>
+        <v>- Kiểu: Textbox
+- Sửa: Có
+- Lấy dữ liệu: Người dùng tự nhập (Initial value - Chức vụ DD BV 4/DSUserDV)
+- Ghi dữ liệu: Chức vụ DD BV 4/DSUserDV</v>
+      </c>
+      <c r="E48" s="32"/>
+      <c r="F48" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="G48" s="32" t="s">
+        <v>205</v>
+      </c>
+      <c r="H48" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v>Người dùng tự nhập (Initial value - Chức vụ DD BV 4/DSUserDV)</v>
+      </c>
+      <c r="I48" s="35" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="93.75" x14ac:dyDescent="0.3">
+      <c r="A49" s="23">
+        <v>48</v>
+      </c>
+      <c r="B49" s="69"/>
+      <c r="C49" s="32" t="s">
+        <v>190</v>
+      </c>
+      <c r="D49" s="36" t="str">
+        <f t="shared" si="3"/>
+        <v>- Kiểu: Textbox
+- Sửa: Có
+- Lấy dữ liệu: Người dùng tự nhập (Initial value -  Đại diện BV 5/DSUserDV)
+- Ghi dữ liệu:  Đại diện BV 5/DSUserDV</v>
+      </c>
+      <c r="E49" s="32"/>
+      <c r="F49" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="G49" s="32" t="s">
+        <v>205</v>
+      </c>
+      <c r="H49" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v>Người dùng tự nhập (Initial value -  Đại diện BV 5/DSUserDV)</v>
+      </c>
+      <c r="I49" s="36" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="93.75" x14ac:dyDescent="0.3">
+      <c r="A50" s="23">
+        <v>49</v>
+      </c>
+      <c r="B50" s="69"/>
+      <c r="C50" s="32" t="s">
+        <v>189</v>
+      </c>
+      <c r="D50" s="36" t="str">
+        <f t="shared" si="3"/>
+        <v>- Kiểu: Textbox
+- Sửa: Có
+- Lấy dữ liệu: Người dùng tự nhập (Initial value - Chức vụ DD BV 5/DSUserDV)
+- Ghi dữ liệu: Chức vụ DD BV 5/DSUserDV</v>
+      </c>
+      <c r="E50" s="32"/>
+      <c r="F50" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="G50" s="32" t="s">
+        <v>205</v>
+      </c>
+      <c r="H50" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v>Người dùng tự nhập (Initial value - Chức vụ DD BV 5/DSUserDV)</v>
+      </c>
+      <c r="I50" s="36" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="112.5" x14ac:dyDescent="0.3">
+      <c r="A51" s="23">
+        <v>50</v>
+      </c>
+      <c r="B51" s="69"/>
+      <c r="C51" s="32" t="s">
+        <v>188</v>
+      </c>
+      <c r="D51" s="37" t="str">
+        <f t="shared" si="3"/>
+        <v>- Kiểu: Textbox
+- Sửa: Có
+- Lấy dữ liệu: Người dùng tự nhập (Initial value - Đại diện ĐV Báo sửa 1/DSUserDV)
+- Ghi dữ liệu: Đại diện ĐV Báo sửa 1/DSUserDV</v>
+      </c>
+      <c r="E51" s="32"/>
+      <c r="F51" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="G51" s="32" t="s">
+        <v>205</v>
+      </c>
+      <c r="H51" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v>Người dùng tự nhập (Initial value - Đại diện ĐV Báo sửa 1/DSUserDV)</v>
+      </c>
+      <c r="I51" s="37" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="112.5" x14ac:dyDescent="0.3">
+      <c r="A52" s="23">
+        <v>51</v>
+      </c>
+      <c r="B52" s="69"/>
+      <c r="C52" s="32" t="s">
+        <v>187</v>
+      </c>
+      <c r="D52" s="37" t="str">
+        <f t="shared" si="3"/>
+        <v>- Kiểu: Textbox
+- Sửa: Có
+- Lấy dữ liệu: Người dùng tự nhập (Initial value - Chức vụ DD ĐV Báo sửa 1/DSUserDV)
+- Ghi dữ liệu: Chức vụ DD ĐV Báo sửa 1/DSUserDV</v>
+      </c>
+      <c r="E52" s="32"/>
+      <c r="F52" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="G52" s="32" t="s">
+        <v>205</v>
+      </c>
+      <c r="H52" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v>Người dùng tự nhập (Initial value - Chức vụ DD ĐV Báo sửa 1/DSUserDV)</v>
+      </c>
+      <c r="I52" s="37" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="112.5" x14ac:dyDescent="0.3">
+      <c r="A53" s="23">
+        <v>52</v>
+      </c>
+      <c r="B53" s="69"/>
+      <c r="C53" s="32" t="s">
+        <v>186</v>
+      </c>
+      <c r="D53" s="35" t="str">
+        <f t="shared" si="3"/>
+        <v>- Kiểu: Textbox
+- Sửa: Có
+- Lấy dữ liệu: Người dùng tự nhập (Initial value - Đại diện ĐV Báo sửa 2/DSUserDV)
+- Ghi dữ liệu: Đại diện ĐV Báo sửa 2/DSUserDV</v>
+      </c>
+      <c r="E53" s="32"/>
+      <c r="F53" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="G53" s="32" t="s">
+        <v>205</v>
+      </c>
+      <c r="H53" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v>Người dùng tự nhập (Initial value - Đại diện ĐV Báo sửa 2/DSUserDV)</v>
+      </c>
+      <c r="I53" s="35" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="112.5" x14ac:dyDescent="0.3">
+      <c r="A54" s="23">
+        <v>53</v>
+      </c>
+      <c r="B54" s="70"/>
+      <c r="C54" s="32" t="s">
+        <v>185</v>
+      </c>
+      <c r="D54" s="35" t="str">
+        <f t="shared" si="3"/>
+        <v>- Kiểu: Textbox
+- Sửa: Có
+- Lấy dữ liệu: Người dùng tự nhập (Initial value - Chức vụ DD ĐV Báo sửa 2/DSUserDV)
+- Ghi dữ liệu: Chức vụ DD ĐV Báo sửa 2/DSUserDV</v>
+      </c>
+      <c r="E54" s="32"/>
+      <c r="F54" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="G54" s="32" t="s">
+        <v>205</v>
+      </c>
+      <c r="H54" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v>Người dùng tự nhập (Initial value - Chức vụ DD ĐV Báo sửa 2/DSUserDV)</v>
+      </c>
+      <c r="I54" s="35" t="s">
+        <v>223</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B14"/>
+    <mergeCell ref="B15:B34"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="B38:B54"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09BED5A0-18B1-4400-B455-EDFE68EA98A4}">
+  <dimension ref="A1:P36"/>
+  <sheetViews>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.85546875" style="20"/>
+    <col min="2" max="2" width="42.7109375" style="19" customWidth="1"/>
+    <col min="3" max="3" width="44.7109375" style="19" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" style="19" customWidth="1"/>
+    <col min="5" max="16384" width="8.85546875" style="18"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" s="31" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="I2" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="J2" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="K2" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="L2" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="M2" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="N2" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="O2" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="P2" s="18" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" s="23">
+        <v>1</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="C3" s="21" t="str">
+        <f>B3</f>
+        <v>IDDataSC</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" s="23">
+        <v>2</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="C4" s="21" t="str">
+        <f>B4</f>
+        <v>Trạng thái</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" s="23">
+        <v>3</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="C5" s="21" t="str">
+        <f>B5</f>
+        <v>Mức độ</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" s="23">
+        <v>4</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" s="23">
+        <v>5</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" s="23">
+        <v>6</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" s="23">
+        <v>7</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="C9" s="21" t="str">
+        <f>B9</f>
+        <v>IDThietBi</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10" s="23">
+        <v>8</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="E10" s="18" t="str">
+        <f t="shared" ref="E10:E18" si="0">B10&amp;" ("&amp;D10&amp;")"</f>
+        <v>Mã thiết bị (Xóa)</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11" s="23">
+        <v>9</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="E11" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>Nhóm thiết bị (Xóa)</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A12" s="23">
+        <v>10</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="E12" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>Tên thiết bị (Xóa)</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13" s="23">
+        <v>11</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="E13" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>Model (Xóa)</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A14" s="23">
+        <v>12</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="E14" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>Serial (Xóa)</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A15" s="23">
+        <v>13</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="E15" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>Hãng sản xuất (Xóa)</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A16" s="23">
+        <v>14</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="E16" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>Nước sản xuất (Xóa)</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="23">
+        <v>15</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="E17" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>Năm sản xuất (Xóa)</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="23">
+        <v>16</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="E18" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>Năm sử dụng (Xóa)</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="23">
+        <v>17</v>
+      </c>
+      <c r="B19" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="C19" s="21" t="str">
+        <f t="shared" ref="C19:C36" si="1">B19</f>
+        <v>Tình trạng thiết bị đơn vị báo</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="23">
+        <v>18</v>
+      </c>
+      <c r="B20" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="C20" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>Ngày đơn vị báo</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="23">
+        <v>19</v>
+      </c>
+      <c r="B21" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="C21" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>Ngày khảo sát</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="23">
+        <v>20</v>
+      </c>
+      <c r="B22" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="C22" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>Tình trang thiết bị khảo sát</v>
+      </c>
+      <c r="D22" s="21" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="23">
+        <v>21</v>
+      </c>
+      <c r="B23" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="C23" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>Kết luận khảo sát</v>
+      </c>
+      <c r="D23" s="21" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="23">
+        <v>22</v>
+      </c>
+      <c r="B24" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="C24" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>Đề xuất phương án</v>
+      </c>
+      <c r="D24" s="21" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="23">
+        <v>23</v>
+      </c>
+      <c r="B25" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="C25" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>Ngày đề nghi</v>
+      </c>
+      <c r="D25" s="21" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="23">
+        <v>24</v>
+      </c>
+      <c r="B26" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="C26" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>Nội dung đề nghi</v>
+      </c>
+      <c r="D26" s="21" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="23">
+        <v>25</v>
+      </c>
+      <c r="B27" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="C27" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>Ngày bàn giao</v>
+      </c>
+      <c r="D27" s="21" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="23">
+        <v>26</v>
+      </c>
+      <c r="B28" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="C28" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>Tình trạng thiết bị bàn giao</v>
+      </c>
+      <c r="D28" s="21" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="23">
+        <v>27</v>
+      </c>
+      <c r="B29" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>Ghi chú</v>
+      </c>
+      <c r="D29" s="21" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="23">
+        <v>28</v>
+      </c>
+      <c r="B30" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>History</v>
+      </c>
+      <c r="D30" s="21" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="23">
+        <v>29</v>
+      </c>
+      <c r="B31" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>TimeUpdate</v>
+      </c>
+      <c r="D31" s="21" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A32" s="23">
+        <v>30</v>
+      </c>
+      <c r="B32" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="C32" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>BM.VTTB.09.01 
+WORD</v>
+      </c>
+      <c r="D32" s="21" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A33" s="23">
+        <v>31</v>
+      </c>
+      <c r="B33" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="C33" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>BM.VTTB.09.01 
+PDF</v>
+      </c>
+      <c r="D33" s="21" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="23">
+        <v>32</v>
+      </c>
+      <c r="B34" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="C34" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>BM.VTTB.09.02</v>
+      </c>
+      <c r="D34" s="21" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="23">
+        <v>33</v>
+      </c>
+      <c r="B35" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="C35" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>BM.VTTB.09.03</v>
+      </c>
+      <c r="D35" s="21" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="23">
+        <v>34</v>
+      </c>
+      <c r="B36" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="C36" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>BM.VTTB.09.04</v>
+      </c>
+      <c r="D36" s="21" t="s">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7C9B7BE-93D3-4A76-8C44-788032138F10}">
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:B10"/>
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -1706,7 +7570,7 @@
       <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="77" t="s">
         <v>72</v>
       </c>
       <c r="C2" s="14" t="s">
@@ -1723,7 +7587,7 @@
       <c r="A3" s="6">
         <v>4</v>
       </c>
-      <c r="B3" s="33"/>
+      <c r="B3" s="78"/>
       <c r="C3" s="14" t="s">
         <v>58</v>
       </c>
@@ -1738,7 +7602,7 @@
       <c r="A4" s="6">
         <v>5</v>
       </c>
-      <c r="B4" s="33"/>
+      <c r="B4" s="78"/>
       <c r="C4" s="14" t="s">
         <v>59</v>
       </c>
@@ -1753,7 +7617,7 @@
       <c r="A5" s="6">
         <v>6</v>
       </c>
-      <c r="B5" s="33"/>
+      <c r="B5" s="78"/>
       <c r="C5" s="14" t="s">
         <v>60</v>
       </c>
@@ -1768,7 +7632,7 @@
       <c r="A6" s="6">
         <v>2</v>
       </c>
-      <c r="B6" s="33"/>
+      <c r="B6" s="78"/>
       <c r="C6" s="14" t="s">
         <v>3</v>
       </c>
@@ -1783,7 +7647,7 @@
       <c r="A7" s="6">
         <v>3</v>
       </c>
-      <c r="B7" s="34"/>
+      <c r="B7" s="79"/>
       <c r="C7" s="14" t="s">
         <v>57</v>
       </c>
@@ -1798,7 +7662,7 @@
       <c r="A8" s="6">
         <v>7</v>
       </c>
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="80" t="s">
         <v>73</v>
       </c>
       <c r="C8" s="14" t="s">
@@ -1815,7 +7679,7 @@
       <c r="A9" s="6">
         <v>8</v>
       </c>
-      <c r="B9" s="36"/>
+      <c r="B9" s="81"/>
       <c r="C9" s="14" t="s">
         <v>21</v>
       </c>
@@ -1830,7 +7694,7 @@
       <c r="A10" s="6">
         <v>9</v>
       </c>
-      <c r="B10" s="37"/>
+      <c r="B10" s="82"/>
       <c r="C10" s="14" t="s">
         <v>51</v>
       </c>
@@ -1845,7 +7709,7 @@
       <c r="A11" s="6">
         <v>10</v>
       </c>
-      <c r="B11" s="35" t="s">
+      <c r="B11" s="80" t="s">
         <v>74</v>
       </c>
       <c r="C11" s="14" t="s">
@@ -1862,7 +7726,7 @@
       <c r="A12" s="6">
         <v>11</v>
       </c>
-      <c r="B12" s="37"/>
+      <c r="B12" s="82"/>
       <c r="C12" s="14" t="s">
         <v>62</v>
       </c>
@@ -1877,7 +7741,7 @@
       <c r="A13" s="6">
         <v>12</v>
       </c>
-      <c r="B13" s="35" t="s">
+      <c r="B13" s="80" t="s">
         <v>75</v>
       </c>
       <c r="C13" s="14" t="s">
@@ -1894,7 +7758,7 @@
       <c r="A14" s="6">
         <v>13</v>
       </c>
-      <c r="B14" s="37"/>
+      <c r="B14" s="82"/>
       <c r="C14" s="14" t="s">
         <v>64</v>
       </c>
@@ -2062,736 +7926,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6534A241-07E3-4EC1-9ED6-D65C9D3E5D56}">
-  <dimension ref="A1:I33"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="17.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="26.5703125" style="15" customWidth="1"/>
-    <col min="4" max="4" width="24" style="15" customWidth="1"/>
-    <col min="5" max="5" width="41.28515625" style="15" customWidth="1"/>
-    <col min="6" max="9" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-    </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" ht="56.25" x14ac:dyDescent="0.3">
-      <c r="A2" s="6">
-        <v>1</v>
-      </c>
-      <c r="B2" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6">
-        <v>2</v>
-      </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6">
-        <v>3</v>
-      </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6">
-        <v>4</v>
-      </c>
-      <c r="B5" s="33"/>
-      <c r="C5" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="33"/>
-      <c r="C6" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6">
-        <v>6</v>
-      </c>
-      <c r="B7" s="33"/>
-      <c r="C7" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="6">
-        <v>7</v>
-      </c>
-      <c r="B8" s="34"/>
-      <c r="C8" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="6">
-        <v>8</v>
-      </c>
-      <c r="B9" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="6">
-        <v>9</v>
-      </c>
-      <c r="B10" s="37"/>
-      <c r="C10" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" s="1" customFormat="1" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="6">
-        <v>10</v>
-      </c>
-      <c r="B11" s="35" t="s">
-        <v>75</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="6">
-        <v>11</v>
-      </c>
-      <c r="B12" s="37"/>
-      <c r="C12" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-    </row>
-    <row r="14" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-    </row>
-    <row r="15" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-    </row>
-    <row r="16" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-    </row>
-    <row r="17" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-    </row>
-    <row r="18" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-    </row>
-    <row r="19" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-    </row>
-    <row r="20" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-    </row>
-    <row r="21" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-    </row>
-    <row r="22" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-    </row>
-    <row r="23" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-    </row>
-    <row r="24" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-    </row>
-    <row r="25" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-    </row>
-    <row r="26" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-    </row>
-    <row r="27" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-    </row>
-    <row r="28" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="6"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-    </row>
-    <row r="29" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="6"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-    </row>
-    <row r="30" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="6"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-    </row>
-    <row r="31" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="6"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-    </row>
-    <row r="32" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="6"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-    </row>
-    <row r="33" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="6"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B2:B8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B11:B12"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E05D625D-BB64-4EAC-826E-347393F7C513}">
-  <dimension ref="A1:I33"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="8.85546875" style="1"/>
-    <col min="2" max="2" width="17.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="26.5703125" style="15" customWidth="1"/>
-    <col min="4" max="4" width="24" style="15" customWidth="1"/>
-    <col min="5" max="5" width="41.28515625" style="15" customWidth="1"/>
-    <col min="6" max="9" width="8.85546875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-    </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" ht="56.25" x14ac:dyDescent="0.3">
-      <c r="A2" s="6">
-        <v>1</v>
-      </c>
-      <c r="B2" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6">
-        <v>2</v>
-      </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6">
-        <v>3</v>
-      </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6">
-        <v>4</v>
-      </c>
-      <c r="B5" s="33"/>
-      <c r="C5" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="33"/>
-      <c r="C6" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6">
-        <v>6</v>
-      </c>
-      <c r="B7" s="33"/>
-      <c r="C7" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="6">
-        <v>7</v>
-      </c>
-      <c r="B8" s="34"/>
-      <c r="C8" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="6">
-        <v>8</v>
-      </c>
-      <c r="B9" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="6">
-        <v>9</v>
-      </c>
-      <c r="B10" s="37"/>
-      <c r="C10" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" s="1" customFormat="1" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="6">
-        <v>10</v>
-      </c>
-      <c r="B11" s="35" t="s">
-        <v>75</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="6">
-        <v>11</v>
-      </c>
-      <c r="B12" s="37"/>
-      <c r="C12" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-    </row>
-    <row r="14" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-    </row>
-    <row r="15" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-    </row>
-    <row r="16" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-    </row>
-    <row r="17" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-    </row>
-    <row r="18" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-    </row>
-    <row r="19" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-    </row>
-    <row r="20" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-    </row>
-    <row r="21" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-    </row>
-    <row r="22" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-    </row>
-    <row r="23" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-    </row>
-    <row r="24" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-    </row>
-    <row r="25" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-    </row>
-    <row r="26" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-    </row>
-    <row r="27" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-    </row>
-    <row r="28" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="6"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-    </row>
-    <row r="29" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="6"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-    </row>
-    <row r="30" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="6"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-    </row>
-    <row r="31" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="6"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-    </row>
-    <row r="32" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="6"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-    </row>
-    <row r="33" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="6"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B2:B8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B11:B12"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
 </file>